--- a/SVM_results/SVM_results_avg_2.xlsx
+++ b/SVM_results/SVM_results_avg_2.xlsx
@@ -1,20 +1,26 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="4" lowestEdited="4" rupBuild="4505"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="20730"/>
   <workbookPr defaultThemeVersion="124226"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice Requires="x15">
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Master_thesis_data\Emotra_preprocessed\Emotra_project\SVM_results\"/>
+    </mc:Choice>
+  </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{552131B8-114C-49CD-8923-A188CB623CB7}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="240" yWindow="15" windowWidth="16095" windowHeight="9660"/>
+    <workbookView xWindow="240" yWindow="15" windowWidth="16095" windowHeight="9660" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="124519" fullCalcOnLoad="1"/>
+  <calcPr calcId="124519"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="62" uniqueCount="62">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="252" uniqueCount="252">
   <si>
     <t>accuracy</t>
   </si>
@@ -46,6 +52,12 @@
     <t xml:space="preserve"> + AE + HR</t>
   </si>
   <si>
+    <t xml:space="preserve"> + AE + Rel_M</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> + AE + M</t>
+  </si>
+  <si>
     <t xml:space="preserve"> + AM + RT</t>
   </si>
   <si>
@@ -58,6 +70,12 @@
     <t xml:space="preserve"> + AM + HR</t>
   </si>
   <si>
+    <t xml:space="preserve"> + AM + Rel_M</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> + AM + M</t>
+  </si>
+  <si>
     <t xml:space="preserve"> + RT + ST</t>
   </si>
   <si>
@@ -67,15 +85,42 @@
     <t xml:space="preserve"> + RT + HR</t>
   </si>
   <si>
+    <t xml:space="preserve"> + RT + Rel_M</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> + RT + M</t>
+  </si>
+  <si>
     <t xml:space="preserve"> + ST + ARC</t>
   </si>
   <si>
     <t xml:space="preserve"> + ST + HR</t>
   </si>
   <si>
+    <t xml:space="preserve"> + ST + Rel_M</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> + ST + M</t>
+  </si>
+  <si>
     <t xml:space="preserve"> + ARC + HR</t>
   </si>
   <si>
+    <t xml:space="preserve"> + ARC + Rel_M</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> + ARC + M</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> + HR + Rel_M</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> + HR + M</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> + Rel_M + M</t>
+  </si>
+  <si>
     <t xml:space="preserve"> + AE + AM + RT</t>
   </si>
   <si>
@@ -88,6 +133,12 @@
     <t xml:space="preserve"> + AE + AM + HR</t>
   </si>
   <si>
+    <t xml:space="preserve"> + AE + AM + Rel_M</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> + AE + AM + M</t>
+  </si>
+  <si>
     <t xml:space="preserve"> + AE + RT + ST</t>
   </si>
   <si>
@@ -97,15 +148,42 @@
     <t xml:space="preserve"> + AE + RT + HR</t>
   </si>
   <si>
+    <t xml:space="preserve"> + AE + RT + Rel_M</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> + AE + RT + M</t>
+  </si>
+  <si>
     <t xml:space="preserve"> + AE + ST + ARC</t>
   </si>
   <si>
     <t xml:space="preserve"> + AE + ST + HR</t>
   </si>
   <si>
+    <t xml:space="preserve"> + AE + ST + Rel_M</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> + AE + ST + M</t>
+  </si>
+  <si>
     <t xml:space="preserve"> + AE + ARC + HR</t>
   </si>
   <si>
+    <t xml:space="preserve"> + AE + ARC + Rel_M</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> + AE + ARC + M</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> + AE + HR + Rel_M</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> + AE + HR + M</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> + AE + Rel_M + M</t>
+  </si>
+  <si>
     <t xml:space="preserve"> + AM + RT + ST</t>
   </si>
   <si>
@@ -115,27 +193,102 @@
     <t xml:space="preserve"> + AM + RT + HR</t>
   </si>
   <si>
+    <t xml:space="preserve"> + AM + RT + Rel_M</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> + AM + RT + M</t>
+  </si>
+  <si>
     <t xml:space="preserve"> + AM + ST + ARC</t>
   </si>
   <si>
     <t xml:space="preserve"> + AM + ST + HR</t>
   </si>
   <si>
+    <t xml:space="preserve"> + AM + ST + Rel_M</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> + AM + ST + M</t>
+  </si>
+  <si>
     <t xml:space="preserve"> + AM + ARC + HR</t>
   </si>
   <si>
+    <t xml:space="preserve"> + AM + ARC + Rel_M</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> + AM + ARC + M</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> + AM + HR + Rel_M</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> + AM + HR + M</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> + AM + Rel_M + M</t>
+  </si>
+  <si>
     <t xml:space="preserve"> + RT + ST + ARC</t>
   </si>
   <si>
     <t xml:space="preserve"> + RT + ST + HR</t>
   </si>
   <si>
+    <t xml:space="preserve"> + RT + ST + Rel_M</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> + RT + ST + M</t>
+  </si>
+  <si>
     <t xml:space="preserve"> + RT + ARC + HR</t>
   </si>
   <si>
+    <t xml:space="preserve"> + RT + ARC + Rel_M</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> + RT + ARC + M</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> + RT + HR + Rel_M</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> + RT + HR + M</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> + RT + Rel_M + M</t>
+  </si>
+  <si>
     <t xml:space="preserve"> + ST + ARC + HR</t>
   </si>
   <si>
+    <t xml:space="preserve"> + ST + ARC + Rel_M</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> + ST + ARC + M</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> + ST + HR + Rel_M</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> + ST + HR + M</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> + ST + Rel_M + M</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> + ARC + HR + Rel_M</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> + ARC + HR + M</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> + ARC + Rel_M + M</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> + HR + Rel_M + M</t>
+  </si>
+  <si>
     <t xml:space="preserve"> + AE + AM + RT + ST</t>
   </si>
   <si>
@@ -145,68 +298,491 @@
     <t xml:space="preserve"> + AE + AM + RT + HR</t>
   </si>
   <si>
+    <t xml:space="preserve"> + AE + AM + RT + Rel_M</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> + AE + AM + RT + M</t>
+  </si>
+  <si>
     <t xml:space="preserve"> + AE + AM + ST + ARC</t>
   </si>
   <si>
     <t xml:space="preserve"> + AE + AM + ST + HR</t>
   </si>
   <si>
+    <t xml:space="preserve"> + AE + AM + ST + Rel_M</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> + AE + AM + ST + M</t>
+  </si>
+  <si>
     <t xml:space="preserve"> + AE + AM + ARC + HR</t>
   </si>
   <si>
+    <t xml:space="preserve"> + AE + AM + ARC + Rel_M</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> + AE + AM + ARC + M</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> + AE + AM + HR + Rel_M</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> + AE + AM + HR + M</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> + AE + AM + Rel_M + M</t>
+  </si>
+  <si>
     <t xml:space="preserve"> + AE + RT + ST + ARC</t>
   </si>
   <si>
     <t xml:space="preserve"> + AE + RT + ST + HR</t>
   </si>
   <si>
+    <t xml:space="preserve"> + AE + RT + ST + Rel_M</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> + AE + RT + ST + M</t>
+  </si>
+  <si>
     <t xml:space="preserve"> + AE + RT + ARC + HR</t>
   </si>
   <si>
+    <t xml:space="preserve"> + AE + RT + ARC + Rel_M</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> + AE + RT + ARC + M</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> + AE + RT + HR + Rel_M</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> + AE + RT + HR + M</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> + AE + RT + Rel_M + M</t>
+  </si>
+  <si>
     <t xml:space="preserve"> + AE + ST + ARC + HR</t>
   </si>
   <si>
+    <t xml:space="preserve"> + AE + ST + ARC + Rel_M</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> + AE + ST + ARC + M</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> + AE + ST + HR + Rel_M</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> + AE + ST + HR + M</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> + AE + ST + Rel_M + M</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> + AE + ARC + HR + Rel_M</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> + AE + ARC + HR + M</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> + AE + ARC + Rel_M + M</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> + AE + HR + Rel_M + M</t>
+  </si>
+  <si>
     <t xml:space="preserve"> + AM + RT + ST + ARC</t>
   </si>
   <si>
     <t xml:space="preserve"> + AM + RT + ST + HR</t>
   </si>
   <si>
+    <t xml:space="preserve"> + AM + RT + ST + Rel_M</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> + AM + RT + ST + M</t>
+  </si>
+  <si>
     <t xml:space="preserve"> + AM + RT + ARC + HR</t>
   </si>
   <si>
+    <t xml:space="preserve"> + AM + RT + ARC + Rel_M</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> + AM + RT + ARC + M</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> + AM + RT + HR + Rel_M</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> + AM + RT + HR + M</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> + AM + RT + Rel_M + M</t>
+  </si>
+  <si>
     <t xml:space="preserve"> + AM + ST + ARC + HR</t>
   </si>
   <si>
+    <t xml:space="preserve"> + AM + ST + ARC + Rel_M</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> + AM + ST + ARC + M</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> + AM + ST + HR + Rel_M</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> + AM + ST + HR + M</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> + AM + ST + Rel_M + M</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> + AM + ARC + HR + Rel_M</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> + AM + ARC + HR + M</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> + AM + ARC + Rel_M + M</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> + AM + HR + Rel_M + M</t>
+  </si>
+  <si>
     <t xml:space="preserve"> + RT + ST + ARC + HR</t>
   </si>
   <si>
+    <t xml:space="preserve"> + RT + ST + ARC + Rel_M</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> + RT + ST + ARC + M</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> + RT + ST + HR + Rel_M</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> + RT + ST + HR + M</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> + RT + ST + Rel_M + M</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> + RT + ARC + HR + Rel_M</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> + RT + ARC + HR + M</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> + RT + ARC + Rel_M + M</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> + RT + HR + Rel_M + M</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> + ST + ARC + HR + Rel_M</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> + ST + ARC + HR + M</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> + ST + ARC + Rel_M + M</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> + ST + HR + Rel_M + M</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> + ARC + HR + Rel_M + M</t>
+  </si>
+  <si>
     <t xml:space="preserve"> + AE + AM + RT + ST + ARC</t>
   </si>
   <si>
     <t xml:space="preserve"> + AE + AM + RT + ST + HR</t>
   </si>
   <si>
+    <t xml:space="preserve"> + AE + AM + RT + ST + Rel_M</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> + AE + AM + RT + ST + M</t>
+  </si>
+  <si>
     <t xml:space="preserve"> + AE + AM + RT + ARC + HR</t>
   </si>
   <si>
+    <t xml:space="preserve"> + AE + AM + RT + ARC + Rel_M</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> + AE + AM + RT + ARC + M</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> + AE + AM + RT + HR + Rel_M</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> + AE + AM + RT + HR + M</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> + AE + AM + RT + Rel_M + M</t>
+  </si>
+  <si>
     <t xml:space="preserve"> + AE + AM + ST + ARC + HR</t>
   </si>
   <si>
+    <t xml:space="preserve"> + AE + AM + ST + ARC + Rel_M</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> + AE + AM + ST + ARC + M</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> + AE + AM + ST + HR + Rel_M</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> + AE + AM + ST + HR + M</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> + AE + AM + ST + Rel_M + M</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> + AE + AM + ARC + HR + Rel_M</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> + AE + AM + ARC + HR + M</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> + AE + AM + ARC + Rel_M + M</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> + AE + AM + HR + Rel_M + M</t>
+  </si>
+  <si>
     <t xml:space="preserve"> + AE + RT + ST + ARC + HR</t>
   </si>
   <si>
+    <t xml:space="preserve"> + AE + RT + ST + ARC + Rel_M</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> + AE + RT + ST + ARC + M</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> + AE + RT + ST + HR + Rel_M</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> + AE + RT + ST + HR + M</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> + AE + RT + ST + Rel_M + M</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> + AE + RT + ARC + HR + Rel_M</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> + AE + RT + ARC + HR + M</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> + AE + RT + ARC + Rel_M + M</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> + AE + RT + HR + Rel_M + M</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> + AE + ST + ARC + HR + Rel_M</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> + AE + ST + ARC + HR + M</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> + AE + ST + ARC + Rel_M + M</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> + AE + ST + HR + Rel_M + M</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> + AE + ARC + HR + Rel_M + M</t>
+  </si>
+  <si>
     <t xml:space="preserve"> + AM + RT + ST + ARC + HR</t>
   </si>
   <si>
+    <t xml:space="preserve"> + AM + RT + ST + ARC + Rel_M</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> + AM + RT + ST + ARC + M</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> + AM + RT + ST + HR + Rel_M</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> + AM + RT + ST + HR + M</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> + AM + RT + ST + Rel_M + M</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> + AM + RT + ARC + HR + Rel_M</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> + AM + RT + ARC + HR + M</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> + AM + RT + ARC + Rel_M + M</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> + AM + RT + HR + Rel_M + M</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> + AM + ST + ARC + HR + Rel_M</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> + AM + ST + ARC + HR + M</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> + AM + ST + ARC + Rel_M + M</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> + AM + ST + HR + Rel_M + M</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> + AM + ARC + HR + Rel_M + M</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> + RT + ST + ARC + HR + Rel_M</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> + RT + ST + ARC + HR + M</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> + RT + ST + ARC + Rel_M + M</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> + RT + ST + HR + Rel_M + M</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> + RT + ARC + HR + Rel_M + M</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> + ST + ARC + HR + Rel_M + M</t>
+  </si>
+  <si>
     <t xml:space="preserve"> + AE + AM + RT + ST + ARC + HR</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> + AE + AM + RT + ST + ARC + Rel_M</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> + AE + AM + RT + ST + ARC + M</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> + AE + AM + RT + ST + HR + Rel_M</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> + AE + AM + RT + ST + HR + M</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> + AE + AM + RT + ST + Rel_M + M</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> + AE + AM + RT + ARC + HR + Rel_M</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> + AE + AM + RT + ARC + HR + M</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> + AE + AM + RT + ARC + Rel_M + M</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> + AE + AM + RT + HR + Rel_M + M</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> + AE + AM + ST + ARC + HR + Rel_M</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> + AE + AM + ST + ARC + HR + M</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> + AE + AM + ST + ARC + Rel_M + M</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> + AE + AM + ST + HR + Rel_M + M</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> + AE + AM + ARC + HR + Rel_M + M</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> + AE + RT + ST + ARC + HR + Rel_M</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> + AE + RT + ST + ARC + HR + M</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> + AE + RT + ST + ARC + Rel_M + M</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> + AE + RT + ST + HR + Rel_M + M</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> + AE + RT + ARC + HR + Rel_M + M</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> + AE + ST + ARC + HR + Rel_M + M</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> + AM + RT + ST + ARC + HR + Rel_M</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> + AM + RT + ST + ARC + HR + M</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> + AM + RT + ST + ARC + Rel_M + M</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> + AM + RT + ST + HR + Rel_M + M</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> + AM + RT + ARC + HR + Rel_M + M</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> + AM + ST + ARC + HR + Rel_M + M</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> + RT + ST + ARC + HR + Rel_M + M</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> + AE + AM + RT + ST + ARC + HR + Rel_M</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> + AE + AM + RT + ST + ARC + HR + M</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> + AE + AM + RT + ST + ARC + Rel_M + M</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> + AE + AM + RT + ST + HR + Rel_M + M</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> + AE + AM + RT + ARC + HR + Rel_M + M</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> + AE + AM + ST + ARC + HR + Rel_M + M</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> + AE + RT + ST + ARC + HR + Rel_M + M</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> + AM + RT + ST + ARC + HR + Rel_M + M</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> + AE + AM + RT + ST + ARC + HR + Rel_M + M</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <fonts count="2">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+  <fonts count="2" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -269,11 +845,19 @@
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
+  <extLst>
+    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
+      <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
+    </ext>
+    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
+      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
+    </ext>
+  </extLst>
 </styleSheet>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office-tema">
   <a:themeElements>
     <a:clrScheme name="Office">
       <a:dk1>
@@ -315,7 +899,7 @@
     </a:clrScheme>
     <a:fontScheme name="Office">
       <a:majorFont>
-        <a:latin typeface="Cambria"/>
+        <a:latin typeface="Cambria" panose="020F0302020204030204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -347,9 +931,27 @@
         <a:font script="Mong" typeface="Mongolian Baiti"/>
         <a:font script="Viet" typeface="Times New Roman"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
+        <a:font script="Geor" typeface="Sylfaen"/>
+        <a:font script="Armn" typeface="Arial"/>
+        <a:font script="Bugi" typeface="Leelawadee UI"/>
+        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
+        <a:font script="Java" typeface="Javanese Text"/>
+        <a:font script="Lisu" typeface="Segoe UI"/>
+        <a:font script="Mymr" typeface="Myanmar Text"/>
+        <a:font script="Nkoo" typeface="Ebrima"/>
+        <a:font script="Olck" typeface="Nirmala UI"/>
+        <a:font script="Osma" typeface="Ebrima"/>
+        <a:font script="Phag" typeface="Phagspa"/>
+        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
+        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
+        <a:font script="Syre" typeface="Estrangelo Edessa"/>
+        <a:font script="Sora" typeface="Nirmala UI"/>
+        <a:font script="Tale" typeface="Microsoft Tai Le"/>
+        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
+        <a:font script="Tfng" typeface="Ebrima"/>
       </a:majorFont>
       <a:minorFont>
-        <a:latin typeface="Calibri"/>
+        <a:latin typeface="Calibri" panose="020F0502020204030204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -381,6 +983,24 @@
         <a:font script="Mong" typeface="Mongolian Baiti"/>
         <a:font script="Viet" typeface="Arial"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
+        <a:font script="Geor" typeface="Sylfaen"/>
+        <a:font script="Armn" typeface="Arial"/>
+        <a:font script="Bugi" typeface="Leelawadee UI"/>
+        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
+        <a:font script="Java" typeface="Javanese Text"/>
+        <a:font script="Lisu" typeface="Segoe UI"/>
+        <a:font script="Mymr" typeface="Myanmar Text"/>
+        <a:font script="Nkoo" typeface="Ebrima"/>
+        <a:font script="Olck" typeface="Nirmala UI"/>
+        <a:font script="Osma" typeface="Ebrima"/>
+        <a:font script="Phag" typeface="Phagspa"/>
+        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
+        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
+        <a:font script="Syre" typeface="Estrangelo Edessa"/>
+        <a:font script="Sora" typeface="Nirmala UI"/>
+        <a:font script="Tale" typeface="Microsoft Tai Le"/>
+        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
+        <a:font script="Tfng" typeface="Ebrima"/>
       </a:minorFont>
     </a:fontScheme>
     <a:fmtScheme name="Office">
@@ -556,14 +1176,19 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:F58"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+  <dimension ref="A1:F248"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="F20" sqref="F20"/>
+    </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="6" max="6" width="40.140625" customWidth="1"/>
+  </cols>
   <sheetData>
-    <row r="1" spans="1:6">
+    <row r="1" spans="1:6" x14ac:dyDescent="0.25">
       <c r="B1" s="1" t="s">
         <v>0</v>
       </c>
@@ -580,1120 +1205,4902 @@
         <v>4</v>
       </c>
     </row>
-    <row r="2" spans="1:6">
+    <row r="2" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A2" s="1">
         <v>0</v>
       </c>
       <c r="B2">
-        <v>0.7401941179339608</v>
+        <v>0.76777057016046446</v>
+      </c>
+      <c r="C2">
+        <v>0.69497389865036929</v>
       </c>
       <c r="D2">
-        <v>0</v>
+        <v>0.19833416675814011</v>
+      </c>
+      <c r="E2">
+        <v>0.30660073081795991</v>
       </c>
       <c r="F2" t="s">
         <v>5</v>
       </c>
     </row>
-    <row r="3" spans="1:6">
+    <row r="3" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A3" s="1">
         <v>1</v>
       </c>
       <c r="B3">
-        <v>0.7479783446324928</v>
-      </c>
-      <c r="C3">
-        <v>0.5378210678210678</v>
+        <v>0.74011608057357459</v>
       </c>
       <c r="D3">
-        <v>0.189289356146499</v>
-      </c>
-      <c r="E3">
-        <v>0.2795126510915985</v>
+        <v>0</v>
       </c>
       <c r="F3" t="s">
         <v>6</v>
       </c>
     </row>
-    <row r="4" spans="1:6">
+    <row r="4" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A4" s="1">
         <v>2</v>
       </c>
       <c r="B4">
-        <v>0.7400916938984539</v>
-      </c>
-      <c r="C4">
-        <v>0.5222222222222223</v>
+        <v>0.74010144856850213</v>
       </c>
       <c r="D4">
-        <v>0.01930618401206637</v>
-      </c>
-      <c r="E4">
-        <v>0.06021285346012258</v>
+        <v>0</v>
       </c>
       <c r="F4" t="s">
         <v>7</v>
       </c>
     </row>
-    <row r="5" spans="1:6">
+    <row r="5" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A5" s="1">
         <v>3</v>
       </c>
       <c r="B5">
-        <v>0.7430766229332292</v>
+        <v>0.99604448129542011</v>
       </c>
       <c r="C5">
-        <v>0.5633333333333332</v>
+        <v>1</v>
       </c>
       <c r="D5">
-        <v>0.04639538984034637</v>
+        <v>0.98531746031746026</v>
       </c>
       <c r="E5">
-        <v>0.08495402277405674</v>
+        <v>0.99248391248391243</v>
       </c>
       <c r="F5" t="s">
         <v>8</v>
       </c>
     </row>
-    <row r="6" spans="1:6">
+    <row r="6" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A6" s="1">
         <v>4</v>
       </c>
       <c r="B6">
-        <v>0.7401453445837195</v>
+        <v>0.74108667024337893</v>
+      </c>
+      <c r="C6">
+        <v>0.58666666666666667</v>
       </c>
       <c r="D6">
-        <v>0</v>
+        <v>3.1757768827378671E-2</v>
+      </c>
+      <c r="E6">
+        <v>5.9203422497140647E-2</v>
       </c>
       <c r="F6" t="s">
         <v>9</v>
       </c>
     </row>
-    <row r="7" spans="1:6">
+    <row r="7" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A7" s="1">
         <v>5</v>
       </c>
       <c r="B7">
-        <v>0.7450958396332246</v>
+        <v>0.89527873969662974</v>
       </c>
       <c r="C7">
-        <v>0.543073593073593</v>
+        <v>0.83669308883860438</v>
       </c>
       <c r="D7">
-        <v>0.227956821965665</v>
+        <v>0.74329130161849388</v>
       </c>
       <c r="E7">
-        <v>0.3135387475143194</v>
+        <v>0.78590855927698033</v>
       </c>
       <c r="F7" t="s">
         <v>10</v>
       </c>
     </row>
-    <row r="8" spans="1:6">
+    <row r="8" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A8" s="1">
         <v>6</v>
       </c>
       <c r="B8">
-        <v>0.7391503682387943</v>
+        <v>0.74105740623323402</v>
       </c>
       <c r="C8">
-        <v>0.375</v>
+        <v>0.51111111111111107</v>
       </c>
       <c r="D8">
-        <v>0.0120442615973897</v>
+        <v>0.1362962962962963</v>
       </c>
       <c r="E8">
-        <v>0.03857216230097586</v>
+        <v>0.30586611456176682</v>
       </c>
       <c r="F8" t="s">
         <v>11</v>
       </c>
     </row>
-    <row r="9" spans="1:6">
+    <row r="9" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A9" s="1">
         <v>7</v>
       </c>
       <c r="B9">
-        <v>0.7440764766131786</v>
+        <v>0.75892796176169353</v>
       </c>
       <c r="C9">
-        <v>0.5742857142857143</v>
+        <v>0.62649572649572649</v>
       </c>
       <c r="D9">
-        <v>0.04787963670316612</v>
+        <v>0.16730698334282709</v>
       </c>
       <c r="E9">
-        <v>0.1086732904734073</v>
+        <v>0.26277284491515829</v>
       </c>
       <c r="F9" t="s">
         <v>12</v>
       </c>
     </row>
-    <row r="10" spans="1:6">
+    <row r="10" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A10" s="1">
         <v>8</v>
       </c>
       <c r="B10">
-        <v>0.740130712578647</v>
+        <v>0.75099741501243711</v>
+      </c>
+      <c r="C10">
+        <v>0.62388888888888894</v>
       </c>
       <c r="D10">
-        <v>0</v>
+        <v>0.11673132513441779</v>
+      </c>
+      <c r="E10">
+        <v>0.19585307366819599</v>
       </c>
       <c r="F10" t="s">
         <v>13</v>
       </c>
     </row>
-    <row r="11" spans="1:6">
+    <row r="11" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A11" s="1">
         <v>9</v>
       </c>
       <c r="B11">
-        <v>0.7688191971906549</v>
+        <v>0.99605423596546849</v>
       </c>
       <c r="C11">
-        <v>0.6534900764272147</v>
+        <v>1</v>
       </c>
       <c r="D11">
-        <v>0.2441417582488906</v>
+        <v>0.98619414483821255</v>
       </c>
       <c r="E11">
-        <v>0.3501731946265324</v>
+        <v>0.99294774631033111</v>
       </c>
       <c r="F11" t="s">
         <v>14</v>
       </c>
     </row>
-    <row r="12" spans="1:6">
+    <row r="12" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A12" s="1">
         <v>10</v>
       </c>
       <c r="B12">
-        <v>0.7806564892942497</v>
+        <v>0.76676583914549101</v>
       </c>
       <c r="C12">
-        <v>0.7356372549019607</v>
+        <v>0.69551282051282048</v>
       </c>
       <c r="D12">
-        <v>0.258135228609545</v>
+        <v>0.2160588787006526</v>
       </c>
       <c r="E12">
-        <v>0.3781579376686863</v>
+        <v>0.32446341785391508</v>
       </c>
       <c r="F12" t="s">
         <v>15</v>
       </c>
     </row>
-    <row r="13" spans="1:6">
+    <row r="13" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A13" s="1">
         <v>11</v>
       </c>
       <c r="B13">
-        <v>0.7400673072233331</v>
+        <v>0.89227917865678186</v>
       </c>
       <c r="C13">
-        <v>0.5875</v>
+        <v>0.898490675990676</v>
       </c>
       <c r="D13">
-        <v>0.0234112791309972</v>
+        <v>0.66186219967408788</v>
       </c>
       <c r="E13">
-        <v>0.05452244116037219</v>
+        <v>0.76043316795292759</v>
       </c>
       <c r="F13" t="s">
         <v>16</v>
       </c>
     </row>
-    <row r="14" spans="1:6">
+    <row r="14" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A14" s="1">
         <v>12</v>
       </c>
       <c r="B14">
-        <v>0.7410964249134274</v>
+        <v>0.77764717358435365</v>
       </c>
       <c r="C14">
-        <v>0.6013852813852814</v>
+        <v>0.64864024864024861</v>
       </c>
       <c r="D14">
-        <v>0.06121659213361151</v>
+        <v>0.31487606075841368</v>
       </c>
       <c r="E14">
-        <v>0.1083132841739279</v>
+        <v>0.42356441401583311</v>
       </c>
       <c r="F14" t="s">
         <v>17</v>
       </c>
     </row>
-    <row r="15" spans="1:6">
+    <row r="15" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A15" s="1">
         <v>13</v>
       </c>
       <c r="B15">
-        <v>0.7381114958786519</v>
-      </c>
-      <c r="C15">
-        <v>0.3333333333333333</v>
+        <v>0.74015509925376777</v>
       </c>
       <c r="D15">
-        <v>0.01173469387755102</v>
-      </c>
-      <c r="E15">
-        <v>0.05541069100391134</v>
+        <v>0</v>
       </c>
       <c r="F15" t="s">
         <v>18</v>
       </c>
     </row>
-    <row r="16" spans="1:6">
+    <row r="16" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A16" s="1">
         <v>14</v>
       </c>
       <c r="B16">
-        <v>0.7440472126030337</v>
+        <v>0.9950592596205432</v>
       </c>
       <c r="C16">
-        <v>0.6309523809523809</v>
+        <v>1</v>
       </c>
       <c r="D16">
-        <v>0.04133486101181201</v>
+        <v>0.98063168650078136</v>
       </c>
       <c r="E16">
-        <v>0.07653928395197104</v>
+        <v>0.99014586735458621</v>
       </c>
       <c r="F16" t="s">
         <v>19</v>
       </c>
     </row>
-    <row r="17" spans="1:6">
+    <row r="17" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A17" s="1">
-        <v>0</v>
+        <v>15</v>
       </c>
       <c r="B17">
-        <v>0.7727161878749452</v>
+        <v>0.73612642052382571</v>
       </c>
       <c r="C17">
-        <v>0.64808658008658</v>
+        <v>0.33333333333333331</v>
       </c>
       <c r="D17">
-        <v>0.268617077422778</v>
+        <v>3.2937476877543469E-2</v>
       </c>
       <c r="E17">
-        <v>0.3753395093002415</v>
+        <v>9.6943778483336573E-2</v>
       </c>
       <c r="F17" t="s">
         <v>20</v>
       </c>
     </row>
-    <row r="18" spans="1:6">
+    <row r="18" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A18" s="1">
-        <v>1</v>
+        <v>16</v>
       </c>
       <c r="B18">
-        <v>0.7391552455738186</v>
+        <v>0.89625908403648258</v>
       </c>
       <c r="C18">
-        <v>0.25</v>
+        <v>0.83889336263196446</v>
       </c>
       <c r="D18">
-        <v>0.007547169811320755</v>
+        <v>0.74384960667747557</v>
       </c>
       <c r="E18">
-        <v>0.07272727272727272</v>
+        <v>0.78607113060810452</v>
       </c>
       <c r="F18" t="s">
         <v>21</v>
       </c>
     </row>
-    <row r="19" spans="1:6">
+    <row r="19" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A19" s="1">
-        <v>2</v>
+        <v>17</v>
       </c>
       <c r="B19">
-        <v>0.7450812076281519</v>
+        <v>0.73716529288396837</v>
       </c>
       <c r="C19">
-        <v>0.75</v>
+        <v>0.29841269841269841</v>
       </c>
       <c r="D19">
-        <v>0.04262091730176837</v>
+        <v>4.0931372549019608E-2</v>
       </c>
       <c r="E19">
-        <v>0.07969786535303777</v>
+        <v>0.16283524904214561</v>
       </c>
       <c r="F19" t="s">
         <v>22</v>
       </c>
     </row>
-    <row r="20" spans="1:6">
+    <row r="20" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A20" s="1">
-        <v>3</v>
+        <v>18</v>
       </c>
       <c r="B20">
-        <v>0.7401453445837195</v>
+        <v>0.98813832122128464</v>
+      </c>
+      <c r="C20">
+        <v>1</v>
       </c>
       <c r="D20">
-        <v>0</v>
+        <v>0.95345395721666915</v>
+      </c>
+      <c r="E20">
+        <v>0.97607928577784553</v>
       </c>
       <c r="F20" t="s">
         <v>23</v>
       </c>
     </row>
-    <row r="21" spans="1:6">
+    <row r="21" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A21" s="1">
-        <v>4</v>
+        <v>19</v>
       </c>
       <c r="B21">
-        <v>0.7697507681802662</v>
+        <v>0.73122957615958639</v>
       </c>
       <c r="C21">
-        <v>0.6625534188034188</v>
+        <v>0.16666666666666671</v>
       </c>
       <c r="D21">
-        <v>0.2780652407701588</v>
+        <v>3.703703703703703E-3</v>
       </c>
       <c r="E21">
-        <v>0.377174427917241</v>
+        <v>3.5714285714285712E-2</v>
       </c>
       <c r="F21" t="s">
         <v>24</v>
       </c>
     </row>
-    <row r="22" spans="1:6">
+    <row r="22" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A22" s="1">
-        <v>5</v>
+        <v>20</v>
       </c>
       <c r="B22">
-        <v>0.7915036823879433</v>
+        <v>0.86957030678437308</v>
       </c>
       <c r="C22">
-        <v>0.7119854002206942</v>
+        <v>0.82055934329421676</v>
       </c>
       <c r="D22">
-        <v>0.3333788132275445</v>
+        <v>0.62968771270658064</v>
       </c>
       <c r="E22">
-        <v>0.4491754223174789</v>
+        <v>0.71192770130714655</v>
       </c>
       <c r="F22" t="s">
         <v>25</v>
       </c>
     </row>
-    <row r="23" spans="1:6">
+    <row r="23" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A23" s="1">
-        <v>6</v>
+        <v>21</v>
       </c>
       <c r="B23">
-        <v>0.7440130712578646</v>
+        <v>0.73715553821391988</v>
       </c>
       <c r="C23">
-        <v>0.5552097154651334</v>
+        <v>0.56944444444444442</v>
       </c>
       <c r="D23">
-        <v>0.1451268339503634</v>
+        <v>6.2809739280327515E-2</v>
       </c>
       <c r="E23">
-        <v>0.2250935899868321</v>
+        <v>0.1140166850693166</v>
       </c>
       <c r="F23" t="s">
         <v>26</v>
       </c>
     </row>
-    <row r="24" spans="1:6">
+    <row r="24" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A24" s="1">
-        <v>7</v>
+        <v>22</v>
       </c>
       <c r="B24">
-        <v>0.7460420426279081</v>
+        <v>0.99900990099009912</v>
       </c>
       <c r="C24">
-        <v>0.6626373626373626</v>
+        <v>1</v>
       </c>
       <c r="D24">
-        <v>0.07523576097105508</v>
+        <v>0.99649122807017532</v>
       </c>
       <c r="E24">
-        <v>0.1300137962659161</v>
+        <v>0.99823008849557515</v>
       </c>
       <c r="F24" t="s">
         <v>27</v>
       </c>
     </row>
-    <row r="25" spans="1:6">
+    <row r="25" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A25" s="1">
-        <v>8</v>
+        <v>23</v>
       </c>
       <c r="B25">
-        <v>0.7401063259035263</v>
+        <v>1</v>
       </c>
       <c r="C25">
-        <v>0.5</v>
+        <v>1</v>
       </c>
       <c r="D25">
-        <v>0.00392156862745098</v>
+        <v>1</v>
       </c>
       <c r="E25">
-        <v>0.03773584905660377</v>
+        <v>1</v>
       </c>
       <c r="F25" t="s">
         <v>28</v>
       </c>
     </row>
-    <row r="26" spans="1:6">
+    <row r="26" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A26" s="1">
-        <v>9</v>
+        <v>24</v>
       </c>
       <c r="B26">
-        <v>0.7421060332634248</v>
+        <v>1</v>
       </c>
       <c r="C26">
-        <v>0.5555555555555555</v>
+        <v>1</v>
       </c>
       <c r="D26">
-        <v>0.01651063829787234</v>
+        <v>1</v>
       </c>
       <c r="E26">
-        <v>0.07855217558721601</v>
+        <v>1</v>
       </c>
       <c r="F26" t="s">
         <v>29</v>
       </c>
     </row>
-    <row r="27" spans="1:6">
+    <row r="27" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A27" s="1">
-        <v>10</v>
+        <v>25</v>
       </c>
       <c r="B27">
-        <v>0.7757645222650342</v>
+        <v>0.91504657854948057</v>
       </c>
       <c r="C27">
-        <v>0.6700095693779904</v>
+        <v>0.93507697065836592</v>
       </c>
       <c r="D27">
-        <v>0.2827007584643053</v>
+        <v>0.72159398496240601</v>
       </c>
       <c r="E27">
-        <v>0.395434941553257</v>
+        <v>0.81404548067963278</v>
       </c>
       <c r="F27" t="s">
         <v>30</v>
       </c>
     </row>
-    <row r="28" spans="1:6">
+    <row r="28" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A28" s="1">
-        <v>11</v>
+        <v>26</v>
       </c>
       <c r="B28">
-        <v>0.782685460664293</v>
+        <v>0.76885333853582405</v>
       </c>
       <c r="C28">
-        <v>0.6847801492281884</v>
+        <v>0.64774236647874017</v>
       </c>
       <c r="D28">
-        <v>0.3154111414900889</v>
+        <v>0.30251606174384638</v>
       </c>
       <c r="E28">
-        <v>0.4291936942114408</v>
+        <v>0.39885573072603941</v>
       </c>
       <c r="F28" t="s">
         <v>31</v>
       </c>
     </row>
-    <row r="29" spans="1:6">
+    <row r="29" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A29" s="1">
-        <v>12</v>
+        <v>27</v>
       </c>
       <c r="B29">
-        <v>0.7568697263815052</v>
+        <v>0.9960493586304443</v>
       </c>
       <c r="C29">
-        <v>0.6015850334735784</v>
+        <v>1</v>
       </c>
       <c r="D29">
-        <v>0.1914975220857574</v>
+        <v>0.98510344827586205</v>
       </c>
       <c r="E29">
-        <v>0.2891635983774005</v>
+        <v>0.99240959541711438</v>
       </c>
       <c r="F29" t="s">
         <v>32</v>
       </c>
     </row>
-    <row r="30" spans="1:6">
+    <row r="30" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A30" s="1">
-        <v>13</v>
+        <v>0</v>
       </c>
       <c r="B30">
-        <v>0.7461152026532701</v>
+        <v>0.75495293371701711</v>
       </c>
       <c r="C30">
-        <v>0.6466666666666667</v>
+        <v>0.63714285714285712</v>
       </c>
       <c r="D30">
-        <v>0.07440054458513037</v>
+        <v>0.15299068982111211</v>
       </c>
       <c r="E30">
-        <v>0.1299959364959365</v>
+        <v>0.2445726676886131</v>
       </c>
       <c r="F30" t="s">
         <v>33</v>
       </c>
     </row>
-    <row r="31" spans="1:6">
+    <row r="31" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A31" s="1">
-        <v>14</v>
+        <v>1</v>
       </c>
       <c r="B31">
-        <v>0.7401160805735746</v>
+        <v>0.75982539140613581</v>
       </c>
       <c r="C31">
-        <v>0.5</v>
+        <v>0.72575757575757582</v>
       </c>
       <c r="D31">
-        <v>0.007940251572327044</v>
+        <v>0.13951392994046111</v>
       </c>
       <c r="E31">
-        <v>0.03858998144712431</v>
+        <v>0.22940375504114191</v>
       </c>
       <c r="F31" t="s">
         <v>34</v>
       </c>
     </row>
-    <row r="32" spans="1:6">
+    <row r="32" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A32" s="1">
-        <v>15</v>
+        <v>2</v>
       </c>
       <c r="B32">
-        <v>0.7430619909281569</v>
+        <v>0.99308393893576541</v>
       </c>
       <c r="C32">
-        <v>0.7133333333333333</v>
+        <v>1</v>
       </c>
       <c r="D32">
-        <v>0.03042313251020368</v>
+        <v>0.97195478815616121</v>
       </c>
       <c r="E32">
-        <v>0.05762488609946237</v>
+        <v>0.98570482015436145</v>
       </c>
       <c r="F32" t="s">
         <v>35</v>
       </c>
     </row>
-    <row r="33" spans="1:6">
+    <row r="33" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A33" s="1">
-        <v>16</v>
+        <v>3</v>
       </c>
       <c r="B33">
-        <v>0.7816075696239574</v>
+        <v>0.76386382480612602</v>
       </c>
       <c r="C33">
-        <v>0.7312271062271062</v>
+        <v>0.67542483660130714</v>
       </c>
       <c r="D33">
-        <v>0.272940392940393</v>
+        <v>0.18784081124344809</v>
       </c>
       <c r="E33">
-        <v>0.3869611058652154</v>
+        <v>0.29108865609839002</v>
       </c>
       <c r="F33" t="s">
         <v>36</v>
       </c>
     </row>
-    <row r="34" spans="1:6">
+    <row r="34" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A34" s="1">
-        <v>17</v>
+        <v>4</v>
       </c>
       <c r="B34">
-        <v>0.7747451592449887</v>
+        <v>0.89624445203141012</v>
       </c>
       <c r="C34">
-        <v>0.7366666666666667</v>
+        <v>0.89418242576137319</v>
       </c>
       <c r="D34">
-        <v>0.2169935431799838</v>
+        <v>0.68139794168096057</v>
       </c>
       <c r="E34">
-        <v>0.3320932697403285</v>
+        <v>0.77201991713801354</v>
       </c>
       <c r="F34" t="s">
         <v>37</v>
       </c>
     </row>
-    <row r="35" spans="1:6">
+    <row r="35" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A35" s="1">
-        <v>18</v>
+        <v>5</v>
       </c>
       <c r="B35">
-        <v>0.7697897868604595</v>
+        <v>0.78263668731405167</v>
       </c>
       <c r="C35">
-        <v>0.7942460317460317</v>
+        <v>0.72855889724310785</v>
       </c>
       <c r="D35">
-        <v>0.162145058331499</v>
+        <v>0.27418483477306999</v>
       </c>
       <c r="E35">
-        <v>0.2649346507476583</v>
+        <v>0.39408547008547001</v>
       </c>
       <c r="F35" t="s">
         <v>38</v>
       </c>
     </row>
-    <row r="36" spans="1:6">
+    <row r="36" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A36" s="1">
-        <v>19</v>
+        <v>6</v>
       </c>
       <c r="B36">
-        <v>0.7431058869433741</v>
-      </c>
-      <c r="C36">
-        <v>0.55</v>
+        <v>0.74015022191874347</v>
       </c>
       <c r="D36">
-        <v>0.0295481330263939</v>
-      </c>
-      <c r="E36">
-        <v>0.06985046571653013</v>
+        <v>0</v>
       </c>
       <c r="F36" t="s">
         <v>39</v>
       </c>
     </row>
-    <row r="37" spans="1:6">
+    <row r="37" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A37" s="1">
-        <v>0</v>
+        <v>7</v>
       </c>
       <c r="B37">
-        <v>0.7707164805150466</v>
+        <v>0.9960493586304443</v>
       </c>
       <c r="C37">
-        <v>0.6625386996904025</v>
+        <v>1</v>
       </c>
       <c r="D37">
-        <v>0.2744365572315883</v>
+        <v>0.98492063492063497</v>
       </c>
       <c r="E37">
-        <v>0.3801830577747536</v>
+        <v>0.99234287904926199</v>
       </c>
       <c r="F37" t="s">
         <v>40</v>
       </c>
     </row>
-    <row r="38" spans="1:6">
+    <row r="38" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A38" s="1">
-        <v>1</v>
+        <v>8</v>
       </c>
       <c r="B38">
-        <v>0.7915085597229674</v>
+        <v>0.73912598156367371</v>
       </c>
       <c r="C38">
-        <v>0.677857996245093</v>
+        <v>0.38888888888888878</v>
       </c>
       <c r="D38">
-        <v>0.3747502761788476</v>
+        <v>1.643605870020964E-2</v>
       </c>
       <c r="E38">
-        <v>0.4815261639145774</v>
+        <v>7.6530612244897961E-2</v>
       </c>
       <c r="F38" t="s">
         <v>41</v>
       </c>
     </row>
-    <row r="39" spans="1:6">
+    <row r="39" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A39" s="1">
-        <v>2</v>
+        <v>9</v>
       </c>
       <c r="B39">
-        <v>0.7589133297566211</v>
+        <v>0.89430327269180121</v>
       </c>
       <c r="C39">
-        <v>0.6145238095238096</v>
+        <v>0.84954895844758183</v>
       </c>
       <c r="D39">
-        <v>0.2158581948976038</v>
+        <v>0.72596365255628847</v>
       </c>
       <c r="E39">
-        <v>0.3148427802180455</v>
+        <v>0.78091266500432432</v>
       </c>
       <c r="F39" t="s">
         <v>42</v>
       </c>
     </row>
-    <row r="40" spans="1:6">
+    <row r="40" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A40" s="1">
-        <v>3</v>
+        <v>10</v>
       </c>
       <c r="B40">
-        <v>0.7450714529581036</v>
-      </c>
-      <c r="C40">
-        <v>0.6633333333333333</v>
+        <v>0.74012095790859878</v>
       </c>
       <c r="D40">
-        <v>0.05223893065998329</v>
-      </c>
-      <c r="E40">
-        <v>0.09495300333704115</v>
+        <v>0</v>
       </c>
       <c r="F40" t="s">
         <v>43</v>
       </c>
     </row>
-    <row r="41" spans="1:6">
+    <row r="41" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A41" s="1">
-        <v>4</v>
+        <v>11</v>
       </c>
       <c r="B41">
-        <v>0.7401550992537679</v>
+        <v>0.9891381749012339</v>
       </c>
       <c r="C41">
-        <v>0.5</v>
+        <v>1</v>
       </c>
       <c r="D41">
-        <v>0.004166666666666667</v>
+        <v>0.95886593689828192</v>
       </c>
       <c r="E41">
-        <v>0.04081632653061225</v>
+        <v>0.97877818563632046</v>
       </c>
       <c r="F41" t="s">
         <v>44</v>
       </c>
     </row>
-    <row r="42" spans="1:6">
+    <row r="42" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A42" s="1">
-        <v>5</v>
+        <v>12</v>
       </c>
       <c r="B42">
-        <v>0.7391552455738184</v>
+        <v>0.73418524118421702</v>
       </c>
       <c r="C42">
-        <v>0.4583333333333333</v>
+        <v>0.1964285714285714</v>
       </c>
       <c r="D42">
-        <v>0.01169515353311136</v>
+        <v>1.124437781109445E-2</v>
       </c>
       <c r="E42">
-        <v>0.03755527368179976</v>
+        <v>5.16025641025641E-2</v>
       </c>
       <c r="F42" t="s">
         <v>45</v>
       </c>
     </row>
-    <row r="43" spans="1:6">
+    <row r="43" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A43" s="1">
-        <v>6</v>
+        <v>13</v>
       </c>
       <c r="B43">
-        <v>0.7875530410183875</v>
+        <v>0.88245134858313412</v>
       </c>
       <c r="C43">
-        <v>0.7101642036124794</v>
+        <v>0.84352955559630782</v>
       </c>
       <c r="D43">
-        <v>0.3300810639958427</v>
+        <v>0.6757747637287288</v>
       </c>
       <c r="E43">
-        <v>0.4468884607035917</v>
+        <v>0.74657507373066179</v>
       </c>
       <c r="F43" t="s">
         <v>46</v>
       </c>
     </row>
-    <row r="44" spans="1:6">
+    <row r="44" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A44" s="1">
-        <v>7</v>
+        <v>14</v>
       </c>
       <c r="B44">
-        <v>0.7628200751109594</v>
+        <v>0.74010632590352632</v>
       </c>
       <c r="C44">
-        <v>0.6202221239372941</v>
+        <v>0.5</v>
       </c>
       <c r="D44">
-        <v>0.2374171295378065</v>
+        <v>3.6363636363636359E-3</v>
       </c>
       <c r="E44">
-        <v>0.3399157885185265</v>
+        <v>3.5714285714285719E-2</v>
       </c>
       <c r="F44" t="s">
         <v>47</v>
       </c>
     </row>
-    <row r="45" spans="1:6">
+    <row r="45" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A45" s="1">
-        <v>8</v>
+        <v>15</v>
       </c>
       <c r="B45">
-        <v>0.7905282153831148</v>
+        <v>0.9960493586304443</v>
       </c>
       <c r="C45">
-        <v>0.7531014254777373</v>
+        <v>1</v>
       </c>
       <c r="D45">
-        <v>0.3039302832244009</v>
+        <v>0.98514431673052361</v>
       </c>
       <c r="E45">
-        <v>0.4266942539089746</v>
+        <v>0.99246708263935501</v>
       </c>
       <c r="F45" t="s">
         <v>48</v>
       </c>
     </row>
-    <row r="46" spans="1:6">
+    <row r="46" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A46" s="1">
-        <v>9</v>
+        <v>16</v>
       </c>
       <c r="B46">
-        <v>0.7400282885431402</v>
+        <v>0.99505438228551912</v>
       </c>
       <c r="C46">
-        <v>0.4999999999999999</v>
+        <v>1</v>
       </c>
       <c r="D46">
-        <v>0.02527585396871684</v>
+        <v>0.98191125381619115</v>
       </c>
       <c r="E46">
-        <v>0.05911594483612555</v>
+        <v>0.99078300469604808</v>
       </c>
       <c r="F46" t="s">
         <v>49</v>
       </c>
     </row>
-    <row r="47" spans="1:6">
+    <row r="47" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A47" s="1">
-        <v>10</v>
+        <v>17</v>
       </c>
       <c r="B47">
-        <v>0.7785884992440131</v>
+        <v>0.99505925962054342</v>
       </c>
       <c r="C47">
-        <v>0.6691767752487393</v>
+        <v>1</v>
       </c>
       <c r="D47">
-        <v>0.3037070212529208</v>
+        <v>0.9804871054871056</v>
       </c>
       <c r="E47">
-        <v>0.4126639892904952</v>
+        <v>0.99010862011752998</v>
       </c>
       <c r="F47" t="s">
         <v>50</v>
       </c>
     </row>
-    <row r="48" spans="1:6">
+    <row r="48" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A48" s="1">
-        <v>11</v>
+        <v>18</v>
       </c>
       <c r="B48">
-        <v>0.7559186460517973</v>
+        <v>0.91894844656879493</v>
       </c>
       <c r="C48">
-        <v>0.6068153289205921</v>
+        <v>0.93189151629644107</v>
       </c>
       <c r="D48">
-        <v>0.2223054539991501</v>
+        <v>0.74221826024669191</v>
       </c>
       <c r="E48">
-        <v>0.31869888761028</v>
+        <v>0.82489387646847234</v>
       </c>
       <c r="F48" t="s">
         <v>51</v>
       </c>
     </row>
-    <row r="49" spans="1:6">
+    <row r="49" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A49" s="1">
-        <v>12</v>
+        <v>19</v>
       </c>
       <c r="B49">
-        <v>0.779607862264059</v>
+        <v>0.77572550358484127</v>
       </c>
       <c r="C49">
-        <v>0.670652841781874</v>
+        <v>0.70811417340829108</v>
       </c>
       <c r="D49">
-        <v>0.3082820278172602</v>
+        <v>0.25035818630264339</v>
       </c>
       <c r="E49">
-        <v>0.4206899485155181</v>
+        <v>0.36139678023565153</v>
       </c>
       <c r="F49" t="s">
         <v>52</v>
       </c>
     </row>
-    <row r="50" spans="1:6">
+    <row r="50" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A50" s="1">
-        <v>13</v>
+        <v>20</v>
       </c>
       <c r="B50">
-        <v>0.7411305662585963</v>
+        <v>0.98714822221138365</v>
       </c>
       <c r="C50">
-        <v>0.5011904761904762</v>
+        <v>1</v>
       </c>
       <c r="D50">
-        <v>0.0371728373330204</v>
+        <v>0.9509001018711466</v>
       </c>
       <c r="E50">
-        <v>0.08345598583906219</v>
+        <v>0.97466942176484073</v>
       </c>
       <c r="F50" t="s">
         <v>53</v>
       </c>
     </row>
-    <row r="51" spans="1:6">
+    <row r="51" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A51" s="1">
-        <v>14</v>
+        <v>21</v>
       </c>
       <c r="B51">
-        <v>0.7776081549041602</v>
+        <v>0.75984002341120804</v>
       </c>
       <c r="C51">
-        <v>0.725</v>
+        <v>0.70714285714285707</v>
       </c>
       <c r="D51">
-        <v>0.2319518500685211</v>
+        <v>0.1215567561841199</v>
       </c>
       <c r="E51">
-        <v>0.3511613500654596</v>
+        <v>0.20583802751869981</v>
       </c>
       <c r="F51" t="s">
         <v>54</v>
       </c>
     </row>
-    <row r="52" spans="1:6">
+    <row r="52" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A52" s="1">
-        <v>0</v>
+        <v>22</v>
       </c>
       <c r="B52">
-        <v>0.794434960737453</v>
+        <v>0.9921035945959128</v>
       </c>
       <c r="C52">
-        <v>0.7233333333333334</v>
+        <v>1</v>
       </c>
       <c r="D52">
-        <v>0.3442700007256133</v>
+        <v>0.96942154220178645</v>
       </c>
       <c r="E52">
-        <v>0.4608933707687767</v>
+        <v>0.98420969017362903</v>
       </c>
       <c r="F52" t="s">
         <v>55</v>
       </c>
     </row>
-    <row r="53" spans="1:6">
+    <row r="53" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A53" s="1">
-        <v>1</v>
+        <v>23</v>
       </c>
       <c r="B53">
-        <v>0.7698288055406526</v>
+        <v>0.7697605228503146</v>
       </c>
       <c r="C53">
-        <v>0.6738063614493821</v>
+        <v>0.73837912087912083</v>
       </c>
       <c r="D53">
-        <v>0.2394187045303736</v>
+        <v>0.18328537139037551</v>
       </c>
       <c r="E53">
-        <v>0.344907336019914</v>
+        <v>0.2920665693272767</v>
       </c>
       <c r="F53" t="s">
         <v>56</v>
       </c>
     </row>
-    <row r="54" spans="1:6">
+    <row r="54" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A54" s="1">
-        <v>2</v>
+        <v>24</v>
       </c>
       <c r="B54">
-        <v>0.7756962395746964</v>
+        <v>0.89228405599180616</v>
       </c>
       <c r="C54">
-        <v>0.6548403837877522</v>
+        <v>0.89168813642497857</v>
       </c>
       <c r="D54">
-        <v>0.3046401496712555</v>
+        <v>0.66481730404318928</v>
       </c>
       <c r="E54">
-        <v>0.4121944711755948</v>
+        <v>0.7604416839199446</v>
       </c>
       <c r="F54" t="s">
         <v>57</v>
       </c>
     </row>
-    <row r="55" spans="1:6">
+    <row r="55" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A55" s="1">
-        <v>3</v>
+        <v>25</v>
       </c>
       <c r="B55">
-        <v>0.7411013022484514</v>
+        <v>0.77768619226454661</v>
       </c>
       <c r="C55">
-        <v>0.5666666666666667</v>
+        <v>0.69871794871794868</v>
       </c>
       <c r="D55">
-        <v>0.02342910848549946</v>
+        <v>0.27010299612578942</v>
       </c>
       <c r="E55">
-        <v>0.07286470143613</v>
+        <v>0.38205055661786103</v>
       </c>
       <c r="F55" t="s">
         <v>58</v>
       </c>
     </row>
-    <row r="56" spans="1:6">
+    <row r="56" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A56" s="1">
-        <v>4</v>
+        <v>26</v>
       </c>
       <c r="B56">
-        <v>0.7727308198800176</v>
+        <v>0.98120275081695352</v>
       </c>
       <c r="C56">
-        <v>0.6897467320261438</v>
+        <v>1</v>
       </c>
       <c r="D56">
-        <v>0.261954903936036</v>
+        <v>0.93205781216419514</v>
       </c>
       <c r="E56">
-        <v>0.3709048444881177</v>
+        <v>0.96445882052316789</v>
       </c>
       <c r="F56" t="s">
         <v>59</v>
       </c>
     </row>
-    <row r="57" spans="1:6">
+    <row r="57" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A57" s="1">
-        <v>5</v>
+        <v>27</v>
       </c>
       <c r="B57">
-        <v>0.7737550602350876</v>
+        <v>0.76284446178608012</v>
       </c>
       <c r="C57">
-        <v>0.6766470588235294</v>
+        <v>0.6977855477855478</v>
       </c>
       <c r="D57">
-        <v>0.2674673533716087</v>
+        <v>0.14854602585994511</v>
       </c>
       <c r="E57">
-        <v>0.3787383901386135</v>
+        <v>0.2437730708721845</v>
       </c>
       <c r="F57" t="s">
         <v>60</v>
       </c>
     </row>
-    <row r="58" spans="1:6">
+    <row r="58" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A58" s="1">
-        <v>0</v>
+        <v>28</v>
       </c>
       <c r="B58">
-        <v>0.7717065795249477</v>
+        <v>0.87353070282397705</v>
       </c>
       <c r="C58">
-        <v>0.6534758251126538</v>
+        <v>0.86186401554822611</v>
       </c>
       <c r="D58">
-        <v>0.252533294344831</v>
+        <v>0.61489888375134283</v>
       </c>
       <c r="E58">
-        <v>0.3636533010348271</v>
+        <v>0.71593657476375072</v>
       </c>
       <c r="F58" t="s">
         <v>61</v>
+      </c>
+    </row>
+    <row r="59" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A59" s="1">
+        <v>29</v>
+      </c>
+      <c r="B59">
+        <v>0.76687314051602207</v>
+      </c>
+      <c r="C59">
+        <v>0.64641779788838616</v>
+      </c>
+      <c r="D59">
+        <v>0.2132167687624488</v>
+      </c>
+      <c r="E59">
+        <v>0.3195757262144065</v>
+      </c>
+      <c r="F59" t="s">
+        <v>62</v>
+      </c>
+    </row>
+    <row r="60" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A60" s="1">
+        <v>30</v>
+      </c>
+      <c r="B60">
+        <v>0.99405940594059405</v>
+      </c>
+      <c r="C60">
+        <v>0.99661016949152548</v>
+      </c>
+      <c r="D60">
+        <v>0.98071611253196933</v>
+      </c>
+      <c r="E60">
+        <v>0.98853334072903087</v>
+      </c>
+      <c r="F60" t="s">
+        <v>63</v>
+      </c>
+    </row>
+    <row r="61" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A61" s="1">
+        <v>31</v>
+      </c>
+      <c r="B61">
+        <v>0.99604935863044441</v>
+      </c>
+      <c r="C61">
+        <v>1</v>
+      </c>
+      <c r="D61">
+        <v>0.98504942912837645</v>
+      </c>
+      <c r="E61">
+        <v>0.99245386465737406</v>
+      </c>
+      <c r="F61" t="s">
+        <v>64</v>
+      </c>
+    </row>
+    <row r="62" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A62" s="1">
+        <v>32</v>
+      </c>
+      <c r="B62">
+        <v>0.99506901429059158</v>
+      </c>
+      <c r="C62">
+        <v>1</v>
+      </c>
+      <c r="D62">
+        <v>0.97838383838383847</v>
+      </c>
+      <c r="E62">
+        <v>0.98896852027852655</v>
+      </c>
+      <c r="F62" t="s">
+        <v>65</v>
+      </c>
+    </row>
+    <row r="63" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A63" s="1">
+        <v>33</v>
+      </c>
+      <c r="B63">
+        <v>0.91107642783982834</v>
+      </c>
+      <c r="C63">
+        <v>0.9487556594991684</v>
+      </c>
+      <c r="D63">
+        <v>0.69682485519298043</v>
+      </c>
+      <c r="E63">
+        <v>0.8020133496967059</v>
+      </c>
+      <c r="F63" t="s">
+        <v>66</v>
+      </c>
+    </row>
+    <row r="64" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A64" s="1">
+        <v>34</v>
+      </c>
+      <c r="B64">
+        <v>0.79446422474759815</v>
+      </c>
+      <c r="C64">
+        <v>0.725421637186343</v>
+      </c>
+      <c r="D64">
+        <v>0.35363722097965372</v>
+      </c>
+      <c r="E64">
+        <v>0.46884420919878977</v>
+      </c>
+      <c r="F64" t="s">
+        <v>67</v>
+      </c>
+    </row>
+    <row r="65" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A65" s="1">
+        <v>35</v>
+      </c>
+      <c r="B65">
+        <v>0.96346388333414623</v>
+      </c>
+      <c r="C65">
+        <v>0.99629629629629624</v>
+      </c>
+      <c r="D65">
+        <v>0.86532297222381516</v>
+      </c>
+      <c r="E65">
+        <v>0.92540861143868669</v>
+      </c>
+      <c r="F65" t="s">
+        <v>68</v>
+      </c>
+    </row>
+    <row r="66" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A66" s="1">
+        <v>36</v>
+      </c>
+      <c r="B66">
+        <v>0.9881529532263571</v>
+      </c>
+      <c r="C66">
+        <v>1</v>
+      </c>
+      <c r="D66">
+        <v>0.95458787369164733</v>
+      </c>
+      <c r="E66">
+        <v>0.97663479057014313</v>
+      </c>
+      <c r="F66" t="s">
+        <v>69</v>
+      </c>
+    </row>
+    <row r="67" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A67" s="1">
+        <v>37</v>
+      </c>
+      <c r="B67">
+        <v>0.73617519387406705</v>
+      </c>
+      <c r="C67">
+        <v>0.26666666666666672</v>
+      </c>
+      <c r="D67">
+        <v>7.4303405572755414E-3</v>
+      </c>
+      <c r="E67">
+        <v>3.4523809523809533E-2</v>
+      </c>
+      <c r="F67" t="s">
+        <v>70</v>
+      </c>
+    </row>
+    <row r="68" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A68" s="1">
+        <v>38</v>
+      </c>
+      <c r="B68">
+        <v>0.88344144759303522</v>
+      </c>
+      <c r="C68">
+        <v>0.84779191704960533</v>
+      </c>
+      <c r="D68">
+        <v>0.67821704259535232</v>
+      </c>
+      <c r="E68">
+        <v>0.75185412841784094</v>
+      </c>
+      <c r="F68" t="s">
+        <v>71</v>
+      </c>
+    </row>
+    <row r="69" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A69" s="1">
+        <v>39</v>
+      </c>
+      <c r="B69">
+        <v>0.74014046724869531</v>
+      </c>
+      <c r="D69">
+        <v>0</v>
+      </c>
+      <c r="F69" t="s">
+        <v>72</v>
+      </c>
+    </row>
+    <row r="70" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A70" s="1">
+        <v>40</v>
+      </c>
+      <c r="B70">
+        <v>0.99308393893576541</v>
+      </c>
+      <c r="C70">
+        <v>1</v>
+      </c>
+      <c r="D70">
+        <v>0.97356772383863233</v>
+      </c>
+      <c r="E70">
+        <v>0.98655343310144461</v>
+      </c>
+      <c r="F70" t="s">
+        <v>73</v>
+      </c>
+    </row>
+    <row r="71" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A71" s="1">
+        <v>41</v>
+      </c>
+      <c r="B71">
+        <v>0.99505438228551912</v>
+      </c>
+      <c r="C71">
+        <v>1</v>
+      </c>
+      <c r="D71">
+        <v>0.98099502959078355</v>
+      </c>
+      <c r="E71">
+        <v>0.99036643102367028</v>
+      </c>
+      <c r="F71" t="s">
+        <v>74</v>
+      </c>
+    </row>
+    <row r="72" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A72" s="1">
+        <v>42</v>
+      </c>
+      <c r="B72">
+        <v>0.99505438228551912</v>
+      </c>
+      <c r="C72">
+        <v>1</v>
+      </c>
+      <c r="D72">
+        <v>0.98155555555555551</v>
+      </c>
+      <c r="E72">
+        <v>0.99060440184035681</v>
+      </c>
+      <c r="F72" t="s">
+        <v>75</v>
+      </c>
+    </row>
+    <row r="73" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A73" s="1">
+        <v>43</v>
+      </c>
+      <c r="B73">
+        <v>0.92194313027361852</v>
+      </c>
+      <c r="C73">
+        <v>0.94178164178164181</v>
+      </c>
+      <c r="D73">
+        <v>0.74355375253549705</v>
+      </c>
+      <c r="E73">
+        <v>0.82952681255006833</v>
+      </c>
+      <c r="F73" t="s">
+        <v>76</v>
+      </c>
+    </row>
+    <row r="74" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A74" s="1">
+        <v>44</v>
+      </c>
+      <c r="B74">
+        <v>0.77176023021021312</v>
+      </c>
+      <c r="C74">
+        <v>0.68234625024098705</v>
+      </c>
+      <c r="D74">
+        <v>0.2393329164569766</v>
+      </c>
+      <c r="E74">
+        <v>0.34504170297660802</v>
+      </c>
+      <c r="F74" t="s">
+        <v>77</v>
+      </c>
+    </row>
+    <row r="75" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A75" s="1">
+        <v>45</v>
+      </c>
+      <c r="B75">
+        <v>0.98716773155148019</v>
+      </c>
+      <c r="C75">
+        <v>1</v>
+      </c>
+      <c r="D75">
+        <v>0.9509540616616089</v>
+      </c>
+      <c r="E75">
+        <v>0.97456576080724699</v>
+      </c>
+      <c r="F75" t="s">
+        <v>78</v>
+      </c>
+    </row>
+    <row r="76" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A76" s="1">
+        <v>46</v>
+      </c>
+      <c r="B76">
+        <v>0.99011851924108674</v>
+      </c>
+      <c r="C76">
+        <v>1</v>
+      </c>
+      <c r="D76">
+        <v>0.96217484695027444</v>
+      </c>
+      <c r="E76">
+        <v>0.98069312476269344</v>
+      </c>
+      <c r="F76" t="s">
+        <v>79</v>
+      </c>
+    </row>
+    <row r="77" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A77" s="1">
+        <v>47</v>
+      </c>
+      <c r="B77">
+        <v>0.99011364190606255</v>
+      </c>
+      <c r="C77">
+        <v>1</v>
+      </c>
+      <c r="D77">
+        <v>0.96364254363346746</v>
+      </c>
+      <c r="E77">
+        <v>0.98139124152931656</v>
+      </c>
+      <c r="F77" t="s">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="78" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A78" s="1">
+        <v>48</v>
+      </c>
+      <c r="B78">
+        <v>0.98912842023118563</v>
+      </c>
+      <c r="C78">
+        <v>1</v>
+      </c>
+      <c r="D78">
+        <v>0.9574337263016508</v>
+      </c>
+      <c r="E78">
+        <v>0.97818126119356208</v>
+      </c>
+      <c r="F78" t="s">
+        <v>81</v>
+      </c>
+    </row>
+    <row r="79" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A79" s="1">
+        <v>49</v>
+      </c>
+      <c r="B79">
+        <v>0.89923425840120963</v>
+      </c>
+      <c r="C79">
+        <v>0.92082343131123623</v>
+      </c>
+      <c r="D79">
+        <v>0.66404354904354912</v>
+      </c>
+      <c r="E79">
+        <v>0.76921797472795894</v>
+      </c>
+      <c r="F79" t="s">
+        <v>82</v>
+      </c>
+    </row>
+    <row r="80" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A80" s="1">
+        <v>50</v>
+      </c>
+      <c r="B80">
+        <v>0.7698531922157732</v>
+      </c>
+      <c r="C80">
+        <v>0.69766566766566762</v>
+      </c>
+      <c r="D80">
+        <v>0.26382467741194843</v>
+      </c>
+      <c r="E80">
+        <v>0.35458372028031099</v>
+      </c>
+      <c r="F80" t="s">
+        <v>83</v>
+      </c>
+    </row>
+    <row r="81" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A81" s="1">
+        <v>51</v>
+      </c>
+      <c r="B81">
+        <v>0.96444422767399884</v>
+      </c>
+      <c r="C81">
+        <v>1</v>
+      </c>
+      <c r="D81">
+        <v>0.86095639836962456</v>
+      </c>
+      <c r="E81">
+        <v>0.9227670644299687</v>
+      </c>
+      <c r="F81" t="s">
+        <v>84</v>
+      </c>
+    </row>
+    <row r="82" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A82" s="1">
+        <v>52</v>
+      </c>
+      <c r="B82">
+        <v>1</v>
+      </c>
+      <c r="C82">
+        <v>1</v>
+      </c>
+      <c r="D82">
+        <v>1</v>
+      </c>
+      <c r="E82">
+        <v>1</v>
+      </c>
+      <c r="F82" t="s">
+        <v>85</v>
+      </c>
+    </row>
+    <row r="83" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A83" s="1">
+        <v>53</v>
+      </c>
+      <c r="B83">
+        <v>1</v>
+      </c>
+      <c r="C83">
+        <v>1</v>
+      </c>
+      <c r="D83">
+        <v>1</v>
+      </c>
+      <c r="E83">
+        <v>1</v>
+      </c>
+      <c r="F83" t="s">
+        <v>86</v>
+      </c>
+    </row>
+    <row r="84" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A84" s="1">
+        <v>54</v>
+      </c>
+      <c r="B84">
+        <v>1</v>
+      </c>
+      <c r="C84">
+        <v>1</v>
+      </c>
+      <c r="D84">
+        <v>1</v>
+      </c>
+      <c r="E84">
+        <v>1</v>
+      </c>
+      <c r="F84" t="s">
+        <v>87</v>
+      </c>
+    </row>
+    <row r="85" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A85" s="1">
+        <v>55</v>
+      </c>
+      <c r="B85">
+        <v>0.96343461932400132</v>
+      </c>
+      <c r="C85">
+        <v>0.98330065359477126</v>
+      </c>
+      <c r="D85">
+        <v>0.87576283361763263</v>
+      </c>
+      <c r="E85">
+        <v>0.92606007437940219</v>
+      </c>
+      <c r="F85" t="s">
+        <v>88</v>
+      </c>
+    </row>
+    <row r="86" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A86" s="1">
+        <v>0</v>
+      </c>
+      <c r="B86">
+        <v>0.75387016534165718</v>
+      </c>
+      <c r="C86">
+        <v>0.62117882117882117</v>
+      </c>
+      <c r="D86">
+        <v>0.13178641364795171</v>
+      </c>
+      <c r="E86">
+        <v>0.21387528682610649</v>
+      </c>
+      <c r="F86" t="s">
+        <v>89</v>
+      </c>
+    </row>
+    <row r="87" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A87" s="1">
+        <v>1</v>
+      </c>
+      <c r="B87">
+        <v>0.99308393893576541</v>
+      </c>
+      <c r="C87">
+        <v>1</v>
+      </c>
+      <c r="D87">
+        <v>0.97433862433862439</v>
+      </c>
+      <c r="E87">
+        <v>0.98680216979282398</v>
+      </c>
+      <c r="F87" t="s">
+        <v>90</v>
+      </c>
+    </row>
+    <row r="88" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A88" s="1">
+        <v>2</v>
+      </c>
+      <c r="B88">
+        <v>0.75490416036677566</v>
+      </c>
+      <c r="C88">
+        <v>0.61875901875901873</v>
+      </c>
+      <c r="D88">
+        <v>0.1560412211207805</v>
+      </c>
+      <c r="E88">
+        <v>0.24370824215081191</v>
+      </c>
+      <c r="F88" t="s">
+        <v>91</v>
+      </c>
+    </row>
+    <row r="89" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A89" s="1">
+        <v>3</v>
+      </c>
+      <c r="B89">
+        <v>0.89227917865678186</v>
+      </c>
+      <c r="C89">
+        <v>0.89150101714617835</v>
+      </c>
+      <c r="D89">
+        <v>0.67060376408486222</v>
+      </c>
+      <c r="E89">
+        <v>0.76479285022038934</v>
+      </c>
+      <c r="F89" t="s">
+        <v>92</v>
+      </c>
+    </row>
+    <row r="90" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A90" s="1">
+        <v>4</v>
+      </c>
+      <c r="B90">
+        <v>0.77268692386480031</v>
+      </c>
+      <c r="C90">
+        <v>0.68510534648642074</v>
+      </c>
+      <c r="D90">
+        <v>0.2176298131025883</v>
+      </c>
+      <c r="E90">
+        <v>0.32972299471422789</v>
+      </c>
+      <c r="F90" t="s">
+        <v>93</v>
+      </c>
+    </row>
+    <row r="91" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A91" s="1">
+        <v>5</v>
+      </c>
+      <c r="B91">
+        <v>0.98321221284690041</v>
+      </c>
+      <c r="C91">
+        <v>1</v>
+      </c>
+      <c r="D91">
+        <v>0.93588682207280594</v>
+      </c>
+      <c r="E91">
+        <v>0.96654215204903571</v>
+      </c>
+      <c r="F91" t="s">
+        <v>94</v>
+      </c>
+    </row>
+    <row r="92" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A92" s="1">
+        <v>6</v>
+      </c>
+      <c r="B92">
+        <v>0.75892308442666923</v>
+      </c>
+      <c r="C92">
+        <v>0.67909090909090908</v>
+      </c>
+      <c r="D92">
+        <v>0.15000200677285841</v>
+      </c>
+      <c r="E92">
+        <v>0.24315644391487989</v>
+      </c>
+      <c r="F92" t="s">
+        <v>95</v>
+      </c>
+    </row>
+    <row r="93" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A93" s="1">
+        <v>7</v>
+      </c>
+      <c r="B93">
+        <v>0.87746671218846028</v>
+      </c>
+      <c r="C93">
+        <v>0.8687099198727104</v>
+      </c>
+      <c r="D93">
+        <v>0.62330870098424573</v>
+      </c>
+      <c r="E93">
+        <v>0.72501426949047221</v>
+      </c>
+      <c r="F93" t="s">
+        <v>96</v>
+      </c>
+    </row>
+    <row r="94" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A94" s="1">
+        <v>8</v>
+      </c>
+      <c r="B94">
+        <v>0.76484416914597875</v>
+      </c>
+      <c r="C94">
+        <v>0.66060606060606053</v>
+      </c>
+      <c r="D94">
+        <v>0.199125351075191</v>
+      </c>
+      <c r="E94">
+        <v>0.2986113697978105</v>
+      </c>
+      <c r="F94" t="s">
+        <v>97</v>
+      </c>
+    </row>
+    <row r="95" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A95" s="1">
+        <v>9</v>
+      </c>
+      <c r="B95">
+        <v>0.98914792957128239</v>
+      </c>
+      <c r="C95">
+        <v>1</v>
+      </c>
+      <c r="D95">
+        <v>0.95834944147150392</v>
+      </c>
+      <c r="E95">
+        <v>0.97841121178187263</v>
+      </c>
+      <c r="F95" t="s">
+        <v>98</v>
+      </c>
+    </row>
+    <row r="96" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A96" s="1">
+        <v>10</v>
+      </c>
+      <c r="B96">
+        <v>0.99407403794566651</v>
+      </c>
+      <c r="C96">
+        <v>1</v>
+      </c>
+      <c r="D96">
+        <v>0.97626838688559181</v>
+      </c>
+      <c r="E96">
+        <v>0.98796075281187223</v>
+      </c>
+      <c r="F96" t="s">
+        <v>99</v>
+      </c>
+    </row>
+    <row r="97" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A97" s="1">
+        <v>11</v>
+      </c>
+      <c r="B97">
+        <v>0.99110374091596365</v>
+      </c>
+      <c r="C97">
+        <v>1</v>
+      </c>
+      <c r="D97">
+        <v>0.96571795259739301</v>
+      </c>
+      <c r="E97">
+        <v>0.98242310517121312</v>
+      </c>
+      <c r="F97" t="s">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="98" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A98" s="1">
+        <v>12</v>
+      </c>
+      <c r="B98">
+        <v>0.9130322391845096</v>
+      </c>
+      <c r="C98">
+        <v>0.95862008488547479</v>
+      </c>
+      <c r="D98">
+        <v>0.69842624942080112</v>
+      </c>
+      <c r="E98">
+        <v>0.80716427311665395</v>
+      </c>
+      <c r="F98" t="s">
+        <v>101</v>
+      </c>
+    </row>
+    <row r="99" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A99" s="1">
+        <v>13</v>
+      </c>
+      <c r="B99">
+        <v>0.78657269667853491</v>
+      </c>
+      <c r="C99">
+        <v>0.68168568340982139</v>
+      </c>
+      <c r="D99">
+        <v>0.34192417703733441</v>
+      </c>
+      <c r="E99">
+        <v>0.45404574887372851</v>
+      </c>
+      <c r="F99" t="s">
+        <v>102</v>
+      </c>
+    </row>
+    <row r="100" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A100" s="1">
+        <v>14</v>
+      </c>
+      <c r="B100">
+        <v>0.96740964736867774</v>
+      </c>
+      <c r="C100">
+        <v>0.98995098039215679</v>
+      </c>
+      <c r="D100">
+        <v>0.87998510427010923</v>
+      </c>
+      <c r="E100">
+        <v>0.93136442219399063</v>
+      </c>
+      <c r="F100" t="s">
+        <v>103</v>
+      </c>
+    </row>
+    <row r="101" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A101" s="1">
+        <v>15</v>
+      </c>
+      <c r="B101">
+        <v>0.98815783056138129</v>
+      </c>
+      <c r="C101">
+        <v>1</v>
+      </c>
+      <c r="D101">
+        <v>0.95323228781986202</v>
+      </c>
+      <c r="E101">
+        <v>0.97583632067807269</v>
+      </c>
+      <c r="F101" t="s">
+        <v>104</v>
+      </c>
+    </row>
+    <row r="102" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A102" s="1">
+        <v>16</v>
+      </c>
+      <c r="B102">
+        <v>0.73820416524411048</v>
+      </c>
+      <c r="C102">
+        <v>0.27777777777777768</v>
+      </c>
+      <c r="D102">
+        <v>8.4219858156028369E-3</v>
+      </c>
+      <c r="E102">
+        <v>3.9999999999999987E-2</v>
+      </c>
+      <c r="F102" t="s">
+        <v>105</v>
+      </c>
+    </row>
+    <row r="103" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A103" s="1">
+        <v>17</v>
+      </c>
+      <c r="B103">
+        <v>0.877393552163098</v>
+      </c>
+      <c r="C103">
+        <v>0.84384454680460119</v>
+      </c>
+      <c r="D103">
+        <v>0.65575682854260664</v>
+      </c>
+      <c r="E103">
+        <v>0.73524491920756763</v>
+      </c>
+      <c r="F103" t="s">
+        <v>106</v>
+      </c>
+    </row>
+    <row r="104" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A104" s="1">
+        <v>18</v>
+      </c>
+      <c r="B104">
+        <v>0.74010632590352632</v>
+      </c>
+      <c r="D104">
+        <v>0</v>
+      </c>
+      <c r="F104" t="s">
+        <v>107</v>
+      </c>
+    </row>
+    <row r="105" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A105" s="1">
+        <v>19</v>
+      </c>
+      <c r="B105">
+        <v>0.99506901429059158</v>
+      </c>
+      <c r="C105">
+        <v>1</v>
+      </c>
+      <c r="D105">
+        <v>0.98142300945535443</v>
+      </c>
+      <c r="E105">
+        <v>0.99051290161145022</v>
+      </c>
+      <c r="F105" t="s">
+        <v>108</v>
+      </c>
+    </row>
+    <row r="106" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A106" s="1">
+        <v>20</v>
+      </c>
+      <c r="B106">
+        <v>0.9960493586304443</v>
+      </c>
+      <c r="C106">
+        <v>1</v>
+      </c>
+      <c r="D106">
+        <v>0.98450700280112036</v>
+      </c>
+      <c r="E106">
+        <v>0.99213636752533496</v>
+      </c>
+      <c r="F106" t="s">
+        <v>109</v>
+      </c>
+    </row>
+    <row r="107" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A107" s="1">
+        <v>21</v>
+      </c>
+      <c r="B107">
+        <v>0.9950592596205432</v>
+      </c>
+      <c r="C107">
+        <v>1</v>
+      </c>
+      <c r="D107">
+        <v>0.98052721088435368</v>
+      </c>
+      <c r="E107">
+        <v>0.99009170653907508</v>
+      </c>
+      <c r="F107" t="s">
+        <v>110</v>
+      </c>
+    </row>
+    <row r="108" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A108" s="1">
+        <v>22</v>
+      </c>
+      <c r="B108">
+        <v>0.91602204555430922</v>
+      </c>
+      <c r="C108">
+        <v>0.91928393580702872</v>
+      </c>
+      <c r="D108">
+        <v>0.74061764231575555</v>
+      </c>
+      <c r="E108">
+        <v>0.82008606668784767</v>
+      </c>
+      <c r="F108" t="s">
+        <v>111</v>
+      </c>
+    </row>
+    <row r="109" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A109" s="1">
+        <v>23</v>
+      </c>
+      <c r="B109">
+        <v>0.77565234355947899</v>
+      </c>
+      <c r="C109">
+        <v>0.70160945842868039</v>
+      </c>
+      <c r="D109">
+        <v>0.22682528212859829</v>
+      </c>
+      <c r="E109">
+        <v>0.33877407609659138</v>
+      </c>
+      <c r="F109" t="s">
+        <v>112</v>
+      </c>
+    </row>
+    <row r="110" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A110" s="1">
+        <v>24</v>
+      </c>
+      <c r="B110">
+        <v>0.98715797688143192</v>
+      </c>
+      <c r="C110">
+        <v>1</v>
+      </c>
+      <c r="D110">
+        <v>0.94954088504088507</v>
+      </c>
+      <c r="E110">
+        <v>0.97381792768669462</v>
+      </c>
+      <c r="F110" t="s">
+        <v>113</v>
+      </c>
+    </row>
+    <row r="111" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A111" s="1">
+        <v>25</v>
+      </c>
+      <c r="B111">
+        <v>0.9891381749012339</v>
+      </c>
+      <c r="C111">
+        <v>1</v>
+      </c>
+      <c r="D111">
+        <v>0.96031650939719992</v>
+      </c>
+      <c r="E111">
+        <v>0.97952903023294768</v>
+      </c>
+      <c r="F111" t="s">
+        <v>114</v>
+      </c>
+    </row>
+    <row r="112" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A112" s="1">
+        <v>26</v>
+      </c>
+      <c r="B112">
+        <v>0.98913329756620993</v>
+      </c>
+      <c r="C112">
+        <v>1</v>
+      </c>
+      <c r="D112">
+        <v>0.95780849251487621</v>
+      </c>
+      <c r="E112">
+        <v>0.97832227809313344</v>
+      </c>
+      <c r="F112" t="s">
+        <v>115</v>
+      </c>
+    </row>
+    <row r="113" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A113" s="1">
+        <v>27</v>
+      </c>
+      <c r="B113">
+        <v>0.98716285421645611</v>
+      </c>
+      <c r="C113">
+        <v>1</v>
+      </c>
+      <c r="D113">
+        <v>0.95185321229294573</v>
+      </c>
+      <c r="E113">
+        <v>0.97515333192351827</v>
+      </c>
+      <c r="F113" t="s">
+        <v>116</v>
+      </c>
+    </row>
+    <row r="114" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A114" s="1">
+        <v>28</v>
+      </c>
+      <c r="B114">
+        <v>0.90613568746037176</v>
+      </c>
+      <c r="C114">
+        <v>0.92598799999620796</v>
+      </c>
+      <c r="D114">
+        <v>0.69229008054728014</v>
+      </c>
+      <c r="E114">
+        <v>0.79120412990666167</v>
+      </c>
+      <c r="F114" t="s">
+        <v>117</v>
+      </c>
+    </row>
+    <row r="115" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A115" s="1">
+        <v>29</v>
+      </c>
+      <c r="B115">
+        <v>0.76876554650538931</v>
+      </c>
+      <c r="C115">
+        <v>0.72178787878787887</v>
+      </c>
+      <c r="D115">
+        <v>0.20158214946478131</v>
+      </c>
+      <c r="E115">
+        <v>0.30639980339433892</v>
+      </c>
+      <c r="F115" t="s">
+        <v>118</v>
+      </c>
+    </row>
+    <row r="116" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A116" s="1">
+        <v>30</v>
+      </c>
+      <c r="B116">
+        <v>0.97036043505828418</v>
+      </c>
+      <c r="C116">
+        <v>1</v>
+      </c>
+      <c r="D116">
+        <v>0.8859178749755392</v>
+      </c>
+      <c r="E116">
+        <v>0.93949033545937</v>
+      </c>
+      <c r="F116" t="s">
+        <v>119</v>
+      </c>
+    </row>
+    <row r="117" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A117" s="1">
+        <v>31</v>
+      </c>
+      <c r="B117">
+        <v>0.99703945764034541</v>
+      </c>
+      <c r="C117">
+        <v>1</v>
+      </c>
+      <c r="D117">
+        <v>0.98733752620545068</v>
+      </c>
+      <c r="E117">
+        <v>0.99354978354978363</v>
+      </c>
+      <c r="F117" t="s">
+        <v>120</v>
+      </c>
+    </row>
+    <row r="118" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A118" s="1">
+        <v>32</v>
+      </c>
+      <c r="B118">
+        <v>0.99506413695556761</v>
+      </c>
+      <c r="C118">
+        <v>1</v>
+      </c>
+      <c r="D118">
+        <v>0.98160791711244999</v>
+      </c>
+      <c r="E118">
+        <v>0.99068757945025676</v>
+      </c>
+      <c r="F118" t="s">
+        <v>121</v>
+      </c>
+    </row>
+    <row r="119" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A119" s="1">
+        <v>33</v>
+      </c>
+      <c r="B119">
+        <v>0.99604448129542011</v>
+      </c>
+      <c r="C119">
+        <v>1</v>
+      </c>
+      <c r="D119">
+        <v>0.98431372549019613</v>
+      </c>
+      <c r="E119">
+        <v>0.99195919591959192</v>
+      </c>
+      <c r="F119" t="s">
+        <v>122</v>
+      </c>
+    </row>
+    <row r="120" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A120" s="1">
+        <v>34</v>
+      </c>
+      <c r="B120">
+        <v>0.96738038335853282</v>
+      </c>
+      <c r="C120">
+        <v>0.98166666666666669</v>
+      </c>
+      <c r="D120">
+        <v>0.88800021234297355</v>
+      </c>
+      <c r="E120">
+        <v>0.93235072494319904</v>
+      </c>
+      <c r="F120" t="s">
+        <v>123</v>
+      </c>
+    </row>
+    <row r="121" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A121" s="1">
+        <v>35</v>
+      </c>
+      <c r="B121">
+        <v>0.98419255718675314</v>
+      </c>
+      <c r="C121">
+        <v>1</v>
+      </c>
+      <c r="D121">
+        <v>0.93795242952897318</v>
+      </c>
+      <c r="E121">
+        <v>0.96781601866291778</v>
+      </c>
+      <c r="F121" t="s">
+        <v>124</v>
+      </c>
+    </row>
+    <row r="122" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A122" s="1">
+        <v>36</v>
+      </c>
+      <c r="B122">
+        <v>0.75793786275179242</v>
+      </c>
+      <c r="C122">
+        <v>0.69015788133435196</v>
+      </c>
+      <c r="D122">
+        <v>0.141007075201322</v>
+      </c>
+      <c r="E122">
+        <v>0.22995025313669379</v>
+      </c>
+      <c r="F122" t="s">
+        <v>125</v>
+      </c>
+    </row>
+    <row r="123" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A123" s="1">
+        <v>37</v>
+      </c>
+      <c r="B123">
+        <v>0.88047115056333214</v>
+      </c>
+      <c r="C123">
+        <v>0.86066537766069828</v>
+      </c>
+      <c r="D123">
+        <v>0.64088834850640886</v>
+      </c>
+      <c r="E123">
+        <v>0.73278654160961199</v>
+      </c>
+      <c r="F123" t="s">
+        <v>126</v>
+      </c>
+    </row>
+    <row r="124" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A124" s="1">
+        <v>38</v>
+      </c>
+      <c r="B124">
+        <v>0.75987904209140122</v>
+      </c>
+      <c r="C124">
+        <v>0.65860389610389602</v>
+      </c>
+      <c r="D124">
+        <v>0.186579232088666</v>
+      </c>
+      <c r="E124">
+        <v>0.28723444783868363</v>
+      </c>
+      <c r="F124" t="s">
+        <v>127</v>
+      </c>
+    </row>
+    <row r="125" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A125" s="1">
+        <v>39</v>
+      </c>
+      <c r="B125">
+        <v>0.99012339657611081</v>
+      </c>
+      <c r="C125">
+        <v>1</v>
+      </c>
+      <c r="D125">
+        <v>0.96256883383880854</v>
+      </c>
+      <c r="E125">
+        <v>0.98090039914601301</v>
+      </c>
+      <c r="F125" t="s">
+        <v>128</v>
+      </c>
+    </row>
+    <row r="126" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A126" s="1">
+        <v>40</v>
+      </c>
+      <c r="B126">
+        <v>0.9930936936058139</v>
+      </c>
+      <c r="C126">
+        <v>1</v>
+      </c>
+      <c r="D126">
+        <v>0.97498503578399465</v>
+      </c>
+      <c r="E126">
+        <v>0.98706602706602697</v>
+      </c>
+      <c r="F126" t="s">
+        <v>129</v>
+      </c>
+    </row>
+    <row r="127" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A127" s="1">
+        <v>41</v>
+      </c>
+      <c r="B127">
+        <v>0.99012339657611081</v>
+      </c>
+      <c r="C127">
+        <v>1</v>
+      </c>
+      <c r="D127">
+        <v>0.96246648423329295</v>
+      </c>
+      <c r="E127">
+        <v>0.98080744664903086</v>
+      </c>
+      <c r="F127" t="s">
+        <v>130</v>
+      </c>
+    </row>
+    <row r="128" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A128" s="1">
+        <v>42</v>
+      </c>
+      <c r="B128">
+        <v>0.91103253182461097</v>
+      </c>
+      <c r="C128">
+        <v>0.93845528455284555</v>
+      </c>
+      <c r="D128">
+        <v>0.70316388510590444</v>
+      </c>
+      <c r="E128">
+        <v>0.80178415235881817</v>
+      </c>
+      <c r="F128" t="s">
+        <v>131</v>
+      </c>
+    </row>
+    <row r="129" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A129" s="1">
+        <v>43</v>
+      </c>
+      <c r="B129">
+        <v>0.78454860264351556</v>
+      </c>
+      <c r="C129">
+        <v>0.68077678332550895</v>
+      </c>
+      <c r="D129">
+        <v>0.32306797351793137</v>
+      </c>
+      <c r="E129">
+        <v>0.43516785187620999</v>
+      </c>
+      <c r="F129" t="s">
+        <v>132</v>
+      </c>
+    </row>
+    <row r="130" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A130" s="1">
+        <v>44</v>
+      </c>
+      <c r="B130">
+        <v>0.96640979368872837</v>
+      </c>
+      <c r="C130">
+        <v>0.99655172413793092</v>
+      </c>
+      <c r="D130">
+        <v>0.87192761689656106</v>
+      </c>
+      <c r="E130">
+        <v>0.92946044391274685</v>
+      </c>
+      <c r="F130" t="s">
+        <v>133</v>
+      </c>
+    </row>
+    <row r="131" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A131" s="1">
+        <v>45</v>
+      </c>
+      <c r="B131">
+        <v>0.98518753353167843</v>
+      </c>
+      <c r="C131">
+        <v>1</v>
+      </c>
+      <c r="D131">
+        <v>0.94446608946608956</v>
+      </c>
+      <c r="E131">
+        <v>0.97131930696867852</v>
+      </c>
+      <c r="F131" t="s">
+        <v>134</v>
+      </c>
+    </row>
+    <row r="132" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A132" s="1">
+        <v>46</v>
+      </c>
+      <c r="B132">
+        <v>0.98027117982734246</v>
+      </c>
+      <c r="C132">
+        <v>1</v>
+      </c>
+      <c r="D132">
+        <v>0.92238777991873966</v>
+      </c>
+      <c r="E132">
+        <v>0.95844453229110171</v>
+      </c>
+      <c r="F132" t="s">
+        <v>135</v>
+      </c>
+    </row>
+    <row r="133" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A133" s="1">
+        <v>47</v>
+      </c>
+      <c r="B133">
+        <v>0.98320733551187622</v>
+      </c>
+      <c r="C133">
+        <v>1</v>
+      </c>
+      <c r="D133">
+        <v>0.93200447893030847</v>
+      </c>
+      <c r="E133">
+        <v>0.96429957734132965</v>
+      </c>
+      <c r="F133" t="s">
+        <v>136</v>
+      </c>
+    </row>
+    <row r="134" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A134" s="1">
+        <v>48</v>
+      </c>
+      <c r="B134">
+        <v>0.90213139540555043</v>
+      </c>
+      <c r="C134">
+        <v>0.94156770130454359</v>
+      </c>
+      <c r="D134">
+        <v>0.67311060031693015</v>
+      </c>
+      <c r="E134">
+        <v>0.78064326118077509</v>
+      </c>
+      <c r="F134" t="s">
+        <v>137</v>
+      </c>
+    </row>
+    <row r="135" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A135" s="1">
+        <v>49</v>
+      </c>
+      <c r="B135">
+        <v>0.78855289469833667</v>
+      </c>
+      <c r="C135">
+        <v>0.71293167701863358</v>
+      </c>
+      <c r="D135">
+        <v>0.29902066486972151</v>
+      </c>
+      <c r="E135">
+        <v>0.42046409740238899</v>
+      </c>
+      <c r="F135" t="s">
+        <v>138</v>
+      </c>
+    </row>
+    <row r="136" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A136" s="1">
+        <v>50</v>
+      </c>
+      <c r="B136">
+        <v>0.94465200214602751</v>
+      </c>
+      <c r="C136">
+        <v>1</v>
+      </c>
+      <c r="D136">
+        <v>0.78516141995469524</v>
+      </c>
+      <c r="E136">
+        <v>0.87872504047816269</v>
+      </c>
+      <c r="F136" t="s">
+        <v>139</v>
+      </c>
+    </row>
+    <row r="137" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A137" s="1">
+        <v>51</v>
+      </c>
+      <c r="B137">
+        <v>0.99505438228551912</v>
+      </c>
+      <c r="C137">
+        <v>1</v>
+      </c>
+      <c r="D137">
+        <v>0.98044351073762837</v>
+      </c>
+      <c r="E137">
+        <v>0.99007254563294167</v>
+      </c>
+      <c r="F137" t="s">
+        <v>140</v>
+      </c>
+    </row>
+    <row r="138" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A138" s="1">
+        <v>52</v>
+      </c>
+      <c r="B138">
+        <v>0.99407403794566651</v>
+      </c>
+      <c r="C138">
+        <v>1</v>
+      </c>
+      <c r="D138">
+        <v>0.9779456377888629</v>
+      </c>
+      <c r="E138">
+        <v>0.98874035325648235</v>
+      </c>
+      <c r="F138" t="s">
+        <v>141</v>
+      </c>
+    </row>
+    <row r="139" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A139" s="1">
+        <v>53</v>
+      </c>
+      <c r="B139">
+        <v>0.99506413695556761</v>
+      </c>
+      <c r="C139">
+        <v>1</v>
+      </c>
+      <c r="D139">
+        <v>0.9818974720987651</v>
+      </c>
+      <c r="E139">
+        <v>0.99083420979460579</v>
+      </c>
+      <c r="F139" t="s">
+        <v>142</v>
+      </c>
+    </row>
+    <row r="140" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A140" s="1">
+        <v>54</v>
+      </c>
+      <c r="B140">
+        <v>0.94268643613129799</v>
+      </c>
+      <c r="C140">
+        <v>0.99512195121951219</v>
+      </c>
+      <c r="D140">
+        <v>0.78619690292122302</v>
+      </c>
+      <c r="E140">
+        <v>0.87770119180592765</v>
+      </c>
+      <c r="F140" t="s">
+        <v>143</v>
+      </c>
+    </row>
+    <row r="141" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A141" s="1">
+        <v>55</v>
+      </c>
+      <c r="B141">
+        <v>0.9881529532263571</v>
+      </c>
+      <c r="C141">
+        <v>1</v>
+      </c>
+      <c r="D141">
+        <v>0.95609238583543177</v>
+      </c>
+      <c r="E141">
+        <v>0.97729622034162289</v>
+      </c>
+      <c r="F141" t="s">
+        <v>144</v>
+      </c>
+    </row>
+    <row r="142" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A142" s="1">
+        <v>56</v>
+      </c>
+      <c r="B142">
+        <v>0.98615324586645858</v>
+      </c>
+      <c r="C142">
+        <v>1</v>
+      </c>
+      <c r="D142">
+        <v>0.94610744937939872</v>
+      </c>
+      <c r="E142">
+        <v>0.97205991492783961</v>
+      </c>
+      <c r="F142" t="s">
+        <v>145</v>
+      </c>
+    </row>
+    <row r="143" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A143" s="1">
+        <v>57</v>
+      </c>
+      <c r="B143">
+        <v>0.98516314685655748</v>
+      </c>
+      <c r="C143">
+        <v>1</v>
+      </c>
+      <c r="D143">
+        <v>0.94111557765591591</v>
+      </c>
+      <c r="E143">
+        <v>0.96929693277289108</v>
+      </c>
+      <c r="F143" t="s">
+        <v>146</v>
+      </c>
+    </row>
+    <row r="144" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A144" s="1">
+        <v>58</v>
+      </c>
+      <c r="B144">
+        <v>0.90710139979515192</v>
+      </c>
+      <c r="C144">
+        <v>0.92246458369600093</v>
+      </c>
+      <c r="D144">
+        <v>0.69745930677154055</v>
+      </c>
+      <c r="E144">
+        <v>0.79413043046002529</v>
+      </c>
+      <c r="F144" t="s">
+        <v>147</v>
+      </c>
+    </row>
+    <row r="145" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A145" s="1">
+        <v>59</v>
+      </c>
+      <c r="B145">
+        <v>0.76089840511144702</v>
+      </c>
+      <c r="C145">
+        <v>0.68030185758513928</v>
+      </c>
+      <c r="D145">
+        <v>0.1890848444641014</v>
+      </c>
+      <c r="E145">
+        <v>0.28675228310502288</v>
+      </c>
+      <c r="F145" t="s">
+        <v>148</v>
+      </c>
+    </row>
+    <row r="146" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A146" s="1">
+        <v>60</v>
+      </c>
+      <c r="B146">
+        <v>0.97037018972833233</v>
+      </c>
+      <c r="C146">
+        <v>1</v>
+      </c>
+      <c r="D146">
+        <v>0.88858530961791826</v>
+      </c>
+      <c r="E146">
+        <v>0.94071301917358596</v>
+      </c>
+      <c r="F146" t="s">
+        <v>149</v>
+      </c>
+    </row>
+    <row r="147" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A147" s="1">
+        <v>61</v>
+      </c>
+      <c r="B147">
+        <v>0.99406428327561824</v>
+      </c>
+      <c r="C147">
+        <v>1</v>
+      </c>
+      <c r="D147">
+        <v>0.97822703222703211</v>
+      </c>
+      <c r="E147">
+        <v>0.98893373974609289</v>
+      </c>
+      <c r="F147" t="s">
+        <v>150</v>
+      </c>
+    </row>
+    <row r="148" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A148" s="1">
+        <v>62</v>
+      </c>
+      <c r="B148">
+        <v>0.99407403794566651</v>
+      </c>
+      <c r="C148">
+        <v>1</v>
+      </c>
+      <c r="D148">
+        <v>0.97769685305472509</v>
+      </c>
+      <c r="E148">
+        <v>0.98863250382086321</v>
+      </c>
+      <c r="F148" t="s">
+        <v>151</v>
+      </c>
+    </row>
+    <row r="149" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A149" s="1">
+        <v>63</v>
+      </c>
+      <c r="B149">
+        <v>0.9930888162707896</v>
+      </c>
+      <c r="C149">
+        <v>1</v>
+      </c>
+      <c r="D149">
+        <v>0.97390109890109888</v>
+      </c>
+      <c r="E149">
+        <v>0.98671869730693251</v>
+      </c>
+      <c r="F149" t="s">
+        <v>152</v>
+      </c>
+    </row>
+    <row r="150" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A150" s="1">
+        <v>64</v>
+      </c>
+      <c r="B150">
+        <v>0.96246402965419686</v>
+      </c>
+      <c r="C150">
+        <v>0.98204651162790702</v>
+      </c>
+      <c r="D150">
+        <v>0.8697580155693363</v>
+      </c>
+      <c r="E150">
+        <v>0.92186528996376205</v>
+      </c>
+      <c r="F150" t="s">
+        <v>153</v>
+      </c>
+    </row>
+    <row r="151" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A151" s="1">
+        <v>65</v>
+      </c>
+      <c r="B151">
+        <v>0.99112325025606007</v>
+      </c>
+      <c r="C151">
+        <v>1</v>
+      </c>
+      <c r="D151">
+        <v>0.96765571510708992</v>
+      </c>
+      <c r="E151">
+        <v>0.98339158840016483</v>
+      </c>
+      <c r="F151" t="s">
+        <v>154</v>
+      </c>
+    </row>
+    <row r="152" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A152" s="1">
+        <v>66</v>
+      </c>
+      <c r="B152">
+        <v>0.99110861825098762</v>
+      </c>
+      <c r="C152">
+        <v>1</v>
+      </c>
+      <c r="D152">
+        <v>0.96459630914289307</v>
+      </c>
+      <c r="E152">
+        <v>0.98186597893288319</v>
+      </c>
+      <c r="F152" t="s">
+        <v>155</v>
+      </c>
+    </row>
+    <row r="153" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A153" s="1">
+        <v>67</v>
+      </c>
+      <c r="B153">
+        <v>0.99011851924108674</v>
+      </c>
+      <c r="C153">
+        <v>1</v>
+      </c>
+      <c r="D153">
+        <v>0.96349274977560329</v>
+      </c>
+      <c r="E153">
+        <v>0.981189006048233</v>
+      </c>
+      <c r="F153" t="s">
+        <v>156</v>
+      </c>
+    </row>
+    <row r="154" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A154" s="1">
+        <v>68</v>
+      </c>
+      <c r="B154">
+        <v>0.94865141686582466</v>
+      </c>
+      <c r="C154">
+        <v>0.99555555555555553</v>
+      </c>
+      <c r="D154">
+        <v>0.81053376318470283</v>
+      </c>
+      <c r="E154">
+        <v>0.89279353193939293</v>
+      </c>
+      <c r="F154" t="s">
+        <v>157</v>
+      </c>
+    </row>
+    <row r="155" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A155" s="1">
+        <v>69</v>
+      </c>
+      <c r="B155">
+        <v>0.99802467931522221</v>
+      </c>
+      <c r="C155">
+        <v>1</v>
+      </c>
+      <c r="D155">
+        <v>0.99241134751773052</v>
+      </c>
+      <c r="E155">
+        <v>0.9961687900966838</v>
+      </c>
+      <c r="F155" t="s">
+        <v>158</v>
+      </c>
+    </row>
+    <row r="156" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A156" s="1">
+        <v>0</v>
+      </c>
+      <c r="B156">
+        <v>0.98517777886162994</v>
+      </c>
+      <c r="C156">
+        <v>1</v>
+      </c>
+      <c r="D156">
+        <v>0.94404561257472497</v>
+      </c>
+      <c r="E156">
+        <v>0.97115807252146902</v>
+      </c>
+      <c r="F156" t="s">
+        <v>159</v>
+      </c>
+    </row>
+    <row r="157" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A157" s="1">
+        <v>1</v>
+      </c>
+      <c r="B157">
+        <v>0.75792810808174416</v>
+      </c>
+      <c r="C157">
+        <v>0.72476190476190472</v>
+      </c>
+      <c r="D157">
+        <v>0.12676802924559649</v>
+      </c>
+      <c r="E157">
+        <v>0.21267515237664489</v>
+      </c>
+      <c r="F157" t="s">
+        <v>160</v>
+      </c>
+    </row>
+    <row r="158" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A158" s="1">
+        <v>2</v>
+      </c>
+      <c r="B158">
+        <v>0.88344632492805941</v>
+      </c>
+      <c r="C158">
+        <v>0.87199106669694904</v>
+      </c>
+      <c r="D158">
+        <v>0.64876906318082794</v>
+      </c>
+      <c r="E158">
+        <v>0.7424339589805633</v>
+      </c>
+      <c r="F158" t="s">
+        <v>161</v>
+      </c>
+    </row>
+    <row r="159" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A159" s="1">
+        <v>3</v>
+      </c>
+      <c r="B159">
+        <v>0.76674632980539437</v>
+      </c>
+      <c r="C159">
+        <v>0.68444614209320098</v>
+      </c>
+      <c r="D159">
+        <v>0.18299563690567591</v>
+      </c>
+      <c r="E159">
+        <v>0.28756708020382632</v>
+      </c>
+      <c r="F159" t="s">
+        <v>162</v>
+      </c>
+    </row>
+    <row r="160" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A160" s="1">
+        <v>4</v>
+      </c>
+      <c r="B160">
+        <v>0.99012339657611081</v>
+      </c>
+      <c r="C160">
+        <v>1</v>
+      </c>
+      <c r="D160">
+        <v>0.96214340198321902</v>
+      </c>
+      <c r="E160">
+        <v>0.98044008239972202</v>
+      </c>
+      <c r="F160" t="s">
+        <v>163</v>
+      </c>
+    </row>
+    <row r="161" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A161" s="1">
+        <v>5</v>
+      </c>
+      <c r="B161">
+        <v>0.9930936936058139</v>
+      </c>
+      <c r="C161">
+        <v>1</v>
+      </c>
+      <c r="D161">
+        <v>0.9735922114482658</v>
+      </c>
+      <c r="E161">
+        <v>0.98649743889904062</v>
+      </c>
+      <c r="F161" t="s">
+        <v>164</v>
+      </c>
+    </row>
+    <row r="162" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A162" s="1">
+        <v>6</v>
+      </c>
+      <c r="B162">
+        <v>0.99210847193093699</v>
+      </c>
+      <c r="C162">
+        <v>1</v>
+      </c>
+      <c r="D162">
+        <v>0.96939960735027153</v>
+      </c>
+      <c r="E162">
+        <v>0.98427550422263865</v>
+      </c>
+      <c r="F162" t="s">
+        <v>165</v>
+      </c>
+    </row>
+    <row r="163" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A163" s="1">
+        <v>7</v>
+      </c>
+      <c r="B163">
+        <v>0.89918548505096818</v>
+      </c>
+      <c r="C163">
+        <v>0.94429953877322304</v>
+      </c>
+      <c r="D163">
+        <v>0.65501192605843772</v>
+      </c>
+      <c r="E163">
+        <v>0.77114029521150673</v>
+      </c>
+      <c r="F163" t="s">
+        <v>166</v>
+      </c>
+    </row>
+    <row r="164" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A164" s="1">
+        <v>8</v>
+      </c>
+      <c r="B164">
+        <v>0.78854801736331281</v>
+      </c>
+      <c r="C164">
+        <v>0.71860188087774302</v>
+      </c>
+      <c r="D164">
+        <v>0.31678049715292428</v>
+      </c>
+      <c r="E164">
+        <v>0.43194313792590061</v>
+      </c>
+      <c r="F164" t="s">
+        <v>167</v>
+      </c>
+    </row>
+    <row r="165" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A165" s="1">
+        <v>9</v>
+      </c>
+      <c r="B165">
+        <v>0.97134077939813679</v>
+      </c>
+      <c r="C165">
+        <v>1</v>
+      </c>
+      <c r="D165">
+        <v>0.88806716591199353</v>
+      </c>
+      <c r="E165">
+        <v>0.94049250157137154</v>
+      </c>
+      <c r="F165" t="s">
+        <v>168</v>
+      </c>
+    </row>
+    <row r="166" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A166" s="1">
+        <v>10</v>
+      </c>
+      <c r="B166">
+        <v>0.98615812320148277</v>
+      </c>
+      <c r="C166">
+        <v>1</v>
+      </c>
+      <c r="D166">
+        <v>0.94710432465374217</v>
+      </c>
+      <c r="E166">
+        <v>0.97268087530240754</v>
+      </c>
+      <c r="F166" t="s">
+        <v>169</v>
+      </c>
+    </row>
+    <row r="167" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A167" s="1">
+        <v>11</v>
+      </c>
+      <c r="B167">
+        <v>0.98319270350680377</v>
+      </c>
+      <c r="C167">
+        <v>1</v>
+      </c>
+      <c r="D167">
+        <v>0.93598357318033865</v>
+      </c>
+      <c r="E167">
+        <v>0.9667726793687772</v>
+      </c>
+      <c r="F167" t="s">
+        <v>170</v>
+      </c>
+    </row>
+    <row r="168" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A168" s="1">
+        <v>12</v>
+      </c>
+      <c r="B168">
+        <v>0.98516802419158167</v>
+      </c>
+      <c r="C168">
+        <v>1</v>
+      </c>
+      <c r="D168">
+        <v>0.94420721615359149</v>
+      </c>
+      <c r="E168">
+        <v>0.9710804535762092</v>
+      </c>
+      <c r="F168" t="s">
+        <v>171</v>
+      </c>
+    </row>
+    <row r="169" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A169" s="1">
+        <v>13</v>
+      </c>
+      <c r="B169">
+        <v>0.90319465444081359</v>
+      </c>
+      <c r="C169">
+        <v>0.9422826296510507</v>
+      </c>
+      <c r="D169">
+        <v>0.67105500225213954</v>
+      </c>
+      <c r="E169">
+        <v>0.78342233663954253</v>
+      </c>
+      <c r="F169" t="s">
+        <v>172</v>
+      </c>
+    </row>
+    <row r="170" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A170" s="1">
+        <v>14</v>
+      </c>
+      <c r="B170">
+        <v>0.79157684241330539</v>
+      </c>
+      <c r="C170">
+        <v>0.73407867494824031</v>
+      </c>
+      <c r="D170">
+        <v>0.31060256233128569</v>
+      </c>
+      <c r="E170">
+        <v>0.43543010128119819</v>
+      </c>
+      <c r="F170" t="s">
+        <v>173</v>
+      </c>
+    </row>
+    <row r="171" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A171" s="1">
+        <v>15</v>
+      </c>
+      <c r="B171">
+        <v>0.94960737453055655</v>
+      </c>
+      <c r="C171">
+        <v>0.99615384615384617</v>
+      </c>
+      <c r="D171">
+        <v>0.80986394557823116</v>
+      </c>
+      <c r="E171">
+        <v>0.89271597062644192</v>
+      </c>
+      <c r="F171" t="s">
+        <v>174</v>
+      </c>
+    </row>
+    <row r="172" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A172" s="1">
+        <v>16</v>
+      </c>
+      <c r="B172">
+        <v>0.98912354289616145</v>
+      </c>
+      <c r="C172">
+        <v>1</v>
+      </c>
+      <c r="D172">
+        <v>0.96122893925011854</v>
+      </c>
+      <c r="E172">
+        <v>0.97976102141596078</v>
+      </c>
+      <c r="F172" t="s">
+        <v>175</v>
+      </c>
+    </row>
+    <row r="173" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A173" s="1">
+        <v>17</v>
+      </c>
+      <c r="B173">
+        <v>0.99308393893576541</v>
+      </c>
+      <c r="C173">
+        <v>1</v>
+      </c>
+      <c r="D173">
+        <v>0.97315503124326663</v>
+      </c>
+      <c r="E173">
+        <v>0.98633680457829054</v>
+      </c>
+      <c r="F173" t="s">
+        <v>176</v>
+      </c>
+    </row>
+    <row r="174" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A174" s="1">
+        <v>18</v>
+      </c>
+      <c r="B174">
+        <v>0.99308393893576541</v>
+      </c>
+      <c r="C174">
+        <v>1</v>
+      </c>
+      <c r="D174">
+        <v>0.97264521193092612</v>
+      </c>
+      <c r="E174">
+        <v>0.98601909252424735</v>
+      </c>
+      <c r="F174" t="s">
+        <v>177</v>
+      </c>
+    </row>
+    <row r="175" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A175" s="1">
+        <v>19</v>
+      </c>
+      <c r="B175">
+        <v>0.95060235087548151</v>
+      </c>
+      <c r="C175">
+        <v>1</v>
+      </c>
+      <c r="D175">
+        <v>0.80419499341238476</v>
+      </c>
+      <c r="E175">
+        <v>0.89074386214292489</v>
+      </c>
+      <c r="F175" t="s">
+        <v>178</v>
+      </c>
+    </row>
+    <row r="176" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A176" s="1">
+        <v>20</v>
+      </c>
+      <c r="B176">
+        <v>0.99011364190606255</v>
+      </c>
+      <c r="C176">
+        <v>1</v>
+      </c>
+      <c r="D176">
+        <v>0.96278159748107617</v>
+      </c>
+      <c r="E176">
+        <v>0.98098258844088659</v>
+      </c>
+      <c r="F176" t="s">
+        <v>179</v>
+      </c>
+    </row>
+    <row r="177" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A177" s="1">
+        <v>21</v>
+      </c>
+      <c r="B177">
+        <v>0.98617763254157931</v>
+      </c>
+      <c r="C177">
+        <v>1</v>
+      </c>
+      <c r="D177">
+        <v>0.949951212918131</v>
+      </c>
+      <c r="E177">
+        <v>0.97390772408359805</v>
+      </c>
+      <c r="F177" t="s">
+        <v>180</v>
+      </c>
+    </row>
+    <row r="178" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A178" s="1">
+        <v>22</v>
+      </c>
+      <c r="B178">
+        <v>0.98813832122128464</v>
+      </c>
+      <c r="C178">
+        <v>1</v>
+      </c>
+      <c r="D178">
+        <v>0.95321492532066576</v>
+      </c>
+      <c r="E178">
+        <v>0.97578309084919024</v>
+      </c>
+      <c r="F178" t="s">
+        <v>181</v>
+      </c>
+    </row>
+    <row r="179" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A179" s="1">
+        <v>23</v>
+      </c>
+      <c r="B179">
+        <v>0.91305174852460613</v>
+      </c>
+      <c r="C179">
+        <v>0.93587882307394499</v>
+      </c>
+      <c r="D179">
+        <v>0.71482331191540638</v>
+      </c>
+      <c r="E179">
+        <v>0.8102144424337705</v>
+      </c>
+      <c r="F179" t="s">
+        <v>182</v>
+      </c>
+    </row>
+    <row r="180" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A180" s="1">
+        <v>24</v>
+      </c>
+      <c r="B180">
+        <v>0.76477100912061646</v>
+      </c>
+      <c r="C180">
+        <v>0.76901344269765315</v>
+      </c>
+      <c r="D180">
+        <v>0.15625607507960451</v>
+      </c>
+      <c r="E180">
+        <v>0.2469327894327894</v>
+      </c>
+      <c r="F180" t="s">
+        <v>183</v>
+      </c>
+    </row>
+    <row r="181" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A181" s="1">
+        <v>25</v>
+      </c>
+      <c r="B181">
+        <v>0.97035068038823591</v>
+      </c>
+      <c r="C181">
+        <v>1</v>
+      </c>
+      <c r="D181">
+        <v>0.88549911304628282</v>
+      </c>
+      <c r="E181">
+        <v>0.93914132156249686</v>
+      </c>
+      <c r="F181" t="s">
+        <v>184</v>
+      </c>
+    </row>
+    <row r="182" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A182" s="1">
+        <v>26</v>
+      </c>
+      <c r="B182">
+        <v>0.9940789152806907</v>
+      </c>
+      <c r="C182">
+        <v>1</v>
+      </c>
+      <c r="D182">
+        <v>0.97712609681553775</v>
+      </c>
+      <c r="E182">
+        <v>0.9883453841489015</v>
+      </c>
+      <c r="F182" t="s">
+        <v>185</v>
+      </c>
+    </row>
+    <row r="183" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A183" s="1">
+        <v>27</v>
+      </c>
+      <c r="B183">
+        <v>0.99504950495049516</v>
+      </c>
+      <c r="C183">
+        <v>1</v>
+      </c>
+      <c r="D183">
+        <v>0.98107187870351209</v>
+      </c>
+      <c r="E183">
+        <v>0.99032523032523034</v>
+      </c>
+      <c r="F183" t="s">
+        <v>186</v>
+      </c>
+    </row>
+    <row r="184" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A184" s="1">
+        <v>28</v>
+      </c>
+      <c r="B184">
+        <v>0.99604448129542011</v>
+      </c>
+      <c r="C184">
+        <v>1</v>
+      </c>
+      <c r="D184">
+        <v>0.98518730380188335</v>
+      </c>
+      <c r="E184">
+        <v>0.99249592701205602</v>
+      </c>
+      <c r="F184" t="s">
+        <v>187</v>
+      </c>
+    </row>
+    <row r="185" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A185" s="1">
+        <v>29</v>
+      </c>
+      <c r="B185">
+        <v>0.97234063307808616</v>
+      </c>
+      <c r="C185">
+        <v>0.99545454545454548</v>
+      </c>
+      <c r="D185">
+        <v>0.89477786924445923</v>
+      </c>
+      <c r="E185">
+        <v>0.94206338444767934</v>
+      </c>
+      <c r="F185" t="s">
+        <v>188</v>
+      </c>
+    </row>
+    <row r="186" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A186" s="1">
+        <v>30</v>
+      </c>
+      <c r="B186">
+        <v>0.98914792957128239</v>
+      </c>
+      <c r="C186">
+        <v>1</v>
+      </c>
+      <c r="D186">
+        <v>0.95885570485112814</v>
+      </c>
+      <c r="E186">
+        <v>0.97865371693848879</v>
+      </c>
+      <c r="F186" t="s">
+        <v>189</v>
+      </c>
+    </row>
+    <row r="187" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A187" s="1">
+        <v>31</v>
+      </c>
+      <c r="B187">
+        <v>0.99109886358093924</v>
+      </c>
+      <c r="C187">
+        <v>1</v>
+      </c>
+      <c r="D187">
+        <v>0.96448395707667167</v>
+      </c>
+      <c r="E187">
+        <v>0.98170483597032265</v>
+      </c>
+      <c r="F187" t="s">
+        <v>190</v>
+      </c>
+    </row>
+    <row r="188" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A188" s="1">
+        <v>32</v>
+      </c>
+      <c r="B188">
+        <v>0.99011851924108674</v>
+      </c>
+      <c r="C188">
+        <v>1</v>
+      </c>
+      <c r="D188">
+        <v>0.96083330860223648</v>
+      </c>
+      <c r="E188">
+        <v>0.97993469378658227</v>
+      </c>
+      <c r="F188" t="s">
+        <v>191</v>
+      </c>
+    </row>
+    <row r="189" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A189" s="1">
+        <v>33</v>
+      </c>
+      <c r="B189">
+        <v>0.94763693118080283</v>
+      </c>
+      <c r="C189">
+        <v>0.98521836506159022</v>
+      </c>
+      <c r="D189">
+        <v>0.81334678750440281</v>
+      </c>
+      <c r="E189">
+        <v>0.8900203224027855</v>
+      </c>
+      <c r="F189" t="s">
+        <v>192</v>
+      </c>
+    </row>
+    <row r="190" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A190" s="1">
+        <v>34</v>
+      </c>
+      <c r="B190">
+        <v>0.9950592596205432</v>
+      </c>
+      <c r="C190">
+        <v>1</v>
+      </c>
+      <c r="D190">
+        <v>0.97988700564971754</v>
+      </c>
+      <c r="E190">
+        <v>0.98965517241379319</v>
+      </c>
+      <c r="F190" t="s">
+        <v>193</v>
+      </c>
+    </row>
+    <row r="191" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A191" s="1">
+        <v>35</v>
+      </c>
+      <c r="B191">
+        <v>0.98516314685655748</v>
+      </c>
+      <c r="C191">
+        <v>1</v>
+      </c>
+      <c r="D191">
+        <v>0.94437108530414826</v>
+      </c>
+      <c r="E191">
+        <v>0.97121828907371077</v>
+      </c>
+      <c r="F191" t="s">
+        <v>194</v>
+      </c>
+    </row>
+    <row r="192" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A192" s="1">
+        <v>36</v>
+      </c>
+      <c r="B192">
+        <v>0.98418767985172906</v>
+      </c>
+      <c r="C192">
+        <v>1</v>
+      </c>
+      <c r="D192">
+        <v>0.93995319210539008</v>
+      </c>
+      <c r="E192">
+        <v>0.96891419679922852</v>
+      </c>
+      <c r="F192" t="s">
+        <v>195</v>
+      </c>
+    </row>
+    <row r="193" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A193" s="1">
+        <v>37</v>
+      </c>
+      <c r="B193">
+        <v>0.98616787787153082</v>
+      </c>
+      <c r="C193">
+        <v>1</v>
+      </c>
+      <c r="D193">
+        <v>0.94746461047239561</v>
+      </c>
+      <c r="E193">
+        <v>0.97270129489854751</v>
+      </c>
+      <c r="F193" t="s">
+        <v>196</v>
+      </c>
+    </row>
+    <row r="194" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A194" s="1">
+        <v>38</v>
+      </c>
+      <c r="B194">
+        <v>0.89132322099204997</v>
+      </c>
+      <c r="C194">
+        <v>0.91833827371934207</v>
+      </c>
+      <c r="D194">
+        <v>0.63620651464996369</v>
+      </c>
+      <c r="E194">
+        <v>0.74793007258984101</v>
+      </c>
+      <c r="F194" t="s">
+        <v>197</v>
+      </c>
+    </row>
+    <row r="195" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A195" s="1">
+        <v>39</v>
+      </c>
+      <c r="B195">
+        <v>0.78459249865873271</v>
+      </c>
+      <c r="C195">
+        <v>0.70403067520714591</v>
+      </c>
+      <c r="D195">
+        <v>0.30566430260047278</v>
+      </c>
+      <c r="E195">
+        <v>0.41944423430669142</v>
+      </c>
+      <c r="F195" t="s">
+        <v>198</v>
+      </c>
+    </row>
+    <row r="196" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A196" s="1">
+        <v>40</v>
+      </c>
+      <c r="B196">
+        <v>0.95060722821050592</v>
+      </c>
+      <c r="C196">
+        <v>0.99629629629629624</v>
+      </c>
+      <c r="D196">
+        <v>0.80720306513409967</v>
+      </c>
+      <c r="E196">
+        <v>0.88981734639629395</v>
+      </c>
+      <c r="F196" t="s">
+        <v>199</v>
+      </c>
+    </row>
+    <row r="197" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A197" s="1">
+        <v>41</v>
+      </c>
+      <c r="B197">
+        <v>0.99110374091596365</v>
+      </c>
+      <c r="C197">
+        <v>1</v>
+      </c>
+      <c r="D197">
+        <v>0.96548353856788105</v>
+      </c>
+      <c r="E197">
+        <v>0.98237797288838524</v>
+      </c>
+      <c r="F197" t="s">
+        <v>200</v>
+      </c>
+    </row>
+    <row r="198" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A198" s="1">
+        <v>42</v>
+      </c>
+      <c r="B198">
+        <v>0.99012339657611081</v>
+      </c>
+      <c r="C198">
+        <v>1</v>
+      </c>
+      <c r="D198">
+        <v>0.96061888408847529</v>
+      </c>
+      <c r="E198">
+        <v>0.97981060197366998</v>
+      </c>
+      <c r="F198" t="s">
+        <v>201</v>
+      </c>
+    </row>
+    <row r="199" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A199" s="1">
+        <v>43</v>
+      </c>
+      <c r="B199">
+        <v>0.99308393893576541</v>
+      </c>
+      <c r="C199">
+        <v>1</v>
+      </c>
+      <c r="D199">
+        <v>0.97382717282717279</v>
+      </c>
+      <c r="E199">
+        <v>0.98664895091503113</v>
+      </c>
+      <c r="F199" t="s">
+        <v>202</v>
+      </c>
+    </row>
+    <row r="200" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A200" s="1">
+        <v>44</v>
+      </c>
+      <c r="B200">
+        <v>0.94959274252548409</v>
+      </c>
+      <c r="C200">
+        <v>1</v>
+      </c>
+      <c r="D200">
+        <v>0.80406365667864255</v>
+      </c>
+      <c r="E200">
+        <v>0.88969879596655321</v>
+      </c>
+      <c r="F200" t="s">
+        <v>203</v>
+      </c>
+    </row>
+    <row r="201" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A201" s="1">
+        <v>45</v>
+      </c>
+      <c r="B201">
+        <v>0.98813832122128464</v>
+      </c>
+      <c r="C201">
+        <v>1</v>
+      </c>
+      <c r="D201">
+        <v>0.95345999039917295</v>
+      </c>
+      <c r="E201">
+        <v>0.97608248705835765</v>
+      </c>
+      <c r="F201" t="s">
+        <v>204</v>
+      </c>
+    </row>
+    <row r="202" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A202" s="1">
+        <v>46</v>
+      </c>
+      <c r="B202">
+        <v>0.98617275520655523</v>
+      </c>
+      <c r="C202">
+        <v>1</v>
+      </c>
+      <c r="D202">
+        <v>0.94567433843295901</v>
+      </c>
+      <c r="E202">
+        <v>0.97190395367311955</v>
+      </c>
+      <c r="F202" t="s">
+        <v>205</v>
+      </c>
+    </row>
+    <row r="203" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A203" s="1">
+        <v>47</v>
+      </c>
+      <c r="B203">
+        <v>0.98418767985172906</v>
+      </c>
+      <c r="C203">
+        <v>1</v>
+      </c>
+      <c r="D203">
+        <v>0.93928034767765101</v>
+      </c>
+      <c r="E203">
+        <v>0.96865673230445037</v>
+      </c>
+      <c r="F203" t="s">
+        <v>206</v>
+      </c>
+    </row>
+    <row r="204" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A204" s="1">
+        <v>48</v>
+      </c>
+      <c r="B204">
+        <v>0.92981027166756081</v>
+      </c>
+      <c r="C204">
+        <v>0.99499999999999988</v>
+      </c>
+      <c r="D204">
+        <v>0.7344763550428175</v>
+      </c>
+      <c r="E204">
+        <v>0.84404282925291341</v>
+      </c>
+      <c r="F204" t="s">
+        <v>207</v>
+      </c>
+    </row>
+    <row r="205" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A205" s="1">
+        <v>49</v>
+      </c>
+      <c r="B205">
+        <v>0.99604448129542011</v>
+      </c>
+      <c r="C205">
+        <v>1</v>
+      </c>
+      <c r="D205">
+        <v>0.98476052249637147</v>
+      </c>
+      <c r="E205">
+        <v>0.99227035100821515</v>
+      </c>
+      <c r="F205" t="s">
+        <v>208</v>
+      </c>
+    </row>
+    <row r="206" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A206" s="1">
+        <v>50</v>
+      </c>
+      <c r="B206">
+        <v>0.9881529532263571</v>
+      </c>
+      <c r="C206">
+        <v>1</v>
+      </c>
+      <c r="D206">
+        <v>0.95517822333611802</v>
+      </c>
+      <c r="E206">
+        <v>0.97688179903710837</v>
+      </c>
+      <c r="F206" t="s">
+        <v>209</v>
+      </c>
+    </row>
+    <row r="207" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A207" s="1">
+        <v>51</v>
+      </c>
+      <c r="B207">
+        <v>0.98912354289616145</v>
+      </c>
+      <c r="C207">
+        <v>1</v>
+      </c>
+      <c r="D207">
+        <v>0.95752769684249339</v>
+      </c>
+      <c r="E207">
+        <v>0.97820211646760313</v>
+      </c>
+      <c r="F207" t="s">
+        <v>210</v>
+      </c>
+    </row>
+    <row r="208" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A208" s="1">
+        <v>52</v>
+      </c>
+      <c r="B208">
+        <v>0.98716773155148019</v>
+      </c>
+      <c r="C208">
+        <v>1</v>
+      </c>
+      <c r="D208">
+        <v>0.94766043970008895</v>
+      </c>
+      <c r="E208">
+        <v>0.97284549525094999</v>
+      </c>
+      <c r="F208" t="s">
+        <v>211</v>
+      </c>
+    </row>
+    <row r="209" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A209" s="1">
+        <v>53</v>
+      </c>
+      <c r="B209">
+        <v>0.95257279422523522</v>
+      </c>
+      <c r="C209">
+        <v>0.99565217391304339</v>
+      </c>
+      <c r="D209">
+        <v>0.8207888053928688</v>
+      </c>
+      <c r="E209">
+        <v>0.89976408068383229</v>
+      </c>
+      <c r="F209" t="s">
+        <v>212</v>
+      </c>
+    </row>
+    <row r="210" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A210" s="1">
+        <v>54</v>
+      </c>
+      <c r="B210">
+        <v>0.9940789152806907</v>
+      </c>
+      <c r="C210">
+        <v>1</v>
+      </c>
+      <c r="D210">
+        <v>0.97703393535801975</v>
+      </c>
+      <c r="E210">
+        <v>0.98832827802188172</v>
+      </c>
+      <c r="F210" t="s">
+        <v>213</v>
+      </c>
+    </row>
+    <row r="211" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A211" s="1">
+        <v>55</v>
+      </c>
+      <c r="B211">
+        <v>0.99011364190606255</v>
+      </c>
+      <c r="C211">
+        <v>1</v>
+      </c>
+      <c r="D211">
+        <v>0.96504611781660954</v>
+      </c>
+      <c r="E211">
+        <v>0.98198645470401069</v>
+      </c>
+      <c r="F211" t="s">
+        <v>214</v>
+      </c>
+    </row>
+    <row r="212" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A212" s="1">
+        <v>0</v>
+      </c>
+      <c r="B212">
+        <v>0.98617275520655523</v>
+      </c>
+      <c r="C212">
+        <v>1</v>
+      </c>
+      <c r="D212">
+        <v>0.94867489303611419</v>
+      </c>
+      <c r="E212">
+        <v>0.97358271805713892</v>
+      </c>
+      <c r="F212" t="s">
+        <v>215</v>
+      </c>
+    </row>
+    <row r="213" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A213" s="1">
+        <v>1</v>
+      </c>
+      <c r="B213">
+        <v>0.98320733551187622</v>
+      </c>
+      <c r="C213">
+        <v>1</v>
+      </c>
+      <c r="D213">
+        <v>0.93551834376929188</v>
+      </c>
+      <c r="E213">
+        <v>0.96658837806440201</v>
+      </c>
+      <c r="F213" t="s">
+        <v>216</v>
+      </c>
+    </row>
+    <row r="214" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A214" s="1">
+        <v>2</v>
+      </c>
+      <c r="B214">
+        <v>0.98615324586645858</v>
+      </c>
+      <c r="C214">
+        <v>1</v>
+      </c>
+      <c r="D214">
+        <v>0.94630070651742471</v>
+      </c>
+      <c r="E214">
+        <v>0.97208621072191259</v>
+      </c>
+      <c r="F214" t="s">
+        <v>217</v>
+      </c>
+    </row>
+    <row r="215" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A215" s="1">
+        <v>3</v>
+      </c>
+      <c r="B215">
+        <v>0.89622982002633766</v>
+      </c>
+      <c r="C215">
+        <v>0.9243805990864814</v>
+      </c>
+      <c r="D215">
+        <v>0.65100082101806245</v>
+      </c>
+      <c r="E215">
+        <v>0.76158943717787042</v>
+      </c>
+      <c r="F215" t="s">
+        <v>218</v>
+      </c>
+    </row>
+    <row r="216" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A216" s="1">
+        <v>4</v>
+      </c>
+      <c r="B216">
+        <v>0.78164171096912649</v>
+      </c>
+      <c r="C216">
+        <v>0.68390635451505011</v>
+      </c>
+      <c r="D216">
+        <v>0.30671199869313071</v>
+      </c>
+      <c r="E216">
+        <v>0.42274084721342098</v>
+      </c>
+      <c r="F216" t="s">
+        <v>219</v>
+      </c>
+    </row>
+    <row r="217" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A217" s="1">
+        <v>5</v>
+      </c>
+      <c r="B217">
+        <v>0.9525532848851388</v>
+      </c>
+      <c r="C217">
+        <v>1</v>
+      </c>
+      <c r="D217">
+        <v>0.81619402985074618</v>
+      </c>
+      <c r="E217">
+        <v>0.89863632612046995</v>
+      </c>
+      <c r="F217" t="s">
+        <v>220</v>
+      </c>
+    </row>
+    <row r="218" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A218" s="1">
+        <v>6</v>
+      </c>
+      <c r="B218">
+        <v>0.99405940594059405</v>
+      </c>
+      <c r="C218">
+        <v>1</v>
+      </c>
+      <c r="D218">
+        <v>0.97735849056603785</v>
+      </c>
+      <c r="E218">
+        <v>0.98799999999999988</v>
+      </c>
+      <c r="F218" t="s">
+        <v>221</v>
+      </c>
+    </row>
+    <row r="219" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A219" s="1">
+        <v>7</v>
+      </c>
+      <c r="B219">
+        <v>0.99308393893576541</v>
+      </c>
+      <c r="C219">
+        <v>1</v>
+      </c>
+      <c r="D219">
+        <v>0.97475652701882221</v>
+      </c>
+      <c r="E219">
+        <v>0.98713803278320678</v>
+      </c>
+      <c r="F219" t="s">
+        <v>222</v>
+      </c>
+    </row>
+    <row r="220" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A220" s="1">
+        <v>8</v>
+      </c>
+      <c r="B220">
+        <v>0.9921035945959128</v>
+      </c>
+      <c r="C220">
+        <v>1</v>
+      </c>
+      <c r="D220">
+        <v>0.96895272215469253</v>
+      </c>
+      <c r="E220">
+        <v>0.98413330559457868</v>
+      </c>
+      <c r="F220" t="s">
+        <v>223</v>
+      </c>
+    </row>
+    <row r="221" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A221" s="1">
+        <v>9</v>
+      </c>
+      <c r="B221">
+        <v>0.95555284592498657</v>
+      </c>
+      <c r="C221">
+        <v>0.99583333333333335</v>
+      </c>
+      <c r="D221">
+        <v>0.83407621006945676</v>
+      </c>
+      <c r="E221">
+        <v>0.90658694734710465</v>
+      </c>
+      <c r="F221" t="s">
+        <v>224</v>
+      </c>
+    </row>
+    <row r="222" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A222" s="1">
+        <v>10</v>
+      </c>
+      <c r="B222">
+        <v>0.98813832122128464</v>
+      </c>
+      <c r="C222">
+        <v>1</v>
+      </c>
+      <c r="D222">
+        <v>0.95460264147456253</v>
+      </c>
+      <c r="E222">
+        <v>0.97664613211301299</v>
+      </c>
+      <c r="F222" t="s">
+        <v>225</v>
+      </c>
+    </row>
+    <row r="223" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A223" s="1">
+        <v>11</v>
+      </c>
+      <c r="B223">
+        <v>0.98714822221138365</v>
+      </c>
+      <c r="C223">
+        <v>1</v>
+      </c>
+      <c r="D223">
+        <v>0.94741575494965002</v>
+      </c>
+      <c r="E223">
+        <v>0.97271709032131659</v>
+      </c>
+      <c r="F223" t="s">
+        <v>226</v>
+      </c>
+    </row>
+    <row r="224" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A224" s="1">
+        <v>12</v>
+      </c>
+      <c r="B224">
+        <v>0.98320245817685215</v>
+      </c>
+      <c r="C224">
+        <v>1</v>
+      </c>
+      <c r="D224">
+        <v>0.93517252655567285</v>
+      </c>
+      <c r="E224">
+        <v>0.96639263769657613</v>
+      </c>
+      <c r="F224" t="s">
+        <v>227</v>
+      </c>
+    </row>
+    <row r="225" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A225" s="1">
+        <v>13</v>
+      </c>
+      <c r="B225">
+        <v>0.93677022874701255</v>
+      </c>
+      <c r="C225">
+        <v>1</v>
+      </c>
+      <c r="D225">
+        <v>0.75582477567384809</v>
+      </c>
+      <c r="E225">
+        <v>0.85997435565644265</v>
+      </c>
+      <c r="F225" t="s">
+        <v>228</v>
+      </c>
+    </row>
+    <row r="226" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A226" s="1">
+        <v>14</v>
+      </c>
+      <c r="B226">
+        <v>0.99406428327561824</v>
+      </c>
+      <c r="C226">
+        <v>1</v>
+      </c>
+      <c r="D226">
+        <v>0.9769452418608815</v>
+      </c>
+      <c r="E226">
+        <v>0.98829133899013788</v>
+      </c>
+      <c r="F226" t="s">
+        <v>229</v>
+      </c>
+    </row>
+    <row r="227" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A227" s="1">
+        <v>15</v>
+      </c>
+      <c r="B227">
+        <v>0.98814807589133302</v>
+      </c>
+      <c r="C227">
+        <v>1</v>
+      </c>
+      <c r="D227">
+        <v>0.95625359302978041</v>
+      </c>
+      <c r="E227">
+        <v>0.97746909050345787</v>
+      </c>
+      <c r="F227" t="s">
+        <v>230</v>
+      </c>
+    </row>
+    <row r="228" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A228" s="1">
+        <v>16</v>
+      </c>
+      <c r="B228">
+        <v>0.98912842023118563</v>
+      </c>
+      <c r="C228">
+        <v>1</v>
+      </c>
+      <c r="D228">
+        <v>0.95801770899725303</v>
+      </c>
+      <c r="E228">
+        <v>0.97854742210240919</v>
+      </c>
+      <c r="F228" t="s">
+        <v>231</v>
+      </c>
+    </row>
+    <row r="229" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A229" s="1">
+        <v>17</v>
+      </c>
+      <c r="B229">
+        <v>0.98912842023118563</v>
+      </c>
+      <c r="C229">
+        <v>1</v>
+      </c>
+      <c r="D229">
+        <v>0.95865113025570303</v>
+      </c>
+      <c r="E229">
+        <v>0.97884972418353444</v>
+      </c>
+      <c r="F229" t="s">
+        <v>232</v>
+      </c>
+    </row>
+    <row r="230" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A230" s="1">
+        <v>18</v>
+      </c>
+      <c r="B230">
+        <v>0.94964151587572554</v>
+      </c>
+      <c r="C230">
+        <v>1</v>
+      </c>
+      <c r="D230">
+        <v>0.81145985017191857</v>
+      </c>
+      <c r="E230">
+        <v>0.89474131892491915</v>
+      </c>
+      <c r="F230" t="s">
+        <v>233</v>
+      </c>
+    </row>
+    <row r="231" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A231" s="1">
+        <v>19</v>
+      </c>
+      <c r="B231">
+        <v>0.99505925962054342</v>
+      </c>
+      <c r="C231">
+        <v>1</v>
+      </c>
+      <c r="D231">
+        <v>0.98085625554569655</v>
+      </c>
+      <c r="E231">
+        <v>0.99033493672668926</v>
+      </c>
+      <c r="F231" t="s">
+        <v>234</v>
+      </c>
+    </row>
+    <row r="232" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A232" s="1">
+        <v>20</v>
+      </c>
+      <c r="B232">
+        <v>0.99110861825098762</v>
+      </c>
+      <c r="C232">
+        <v>1</v>
+      </c>
+      <c r="D232">
+        <v>0.96579150608800224</v>
+      </c>
+      <c r="E232">
+        <v>0.98240048067342145</v>
+      </c>
+      <c r="F232" t="s">
+        <v>235</v>
+      </c>
+    </row>
+    <row r="233" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A233" s="1">
+        <v>21</v>
+      </c>
+      <c r="B233">
+        <v>0.98419743452177733</v>
+      </c>
+      <c r="C233">
+        <v>1</v>
+      </c>
+      <c r="D233">
+        <v>0.93780299476112283</v>
+      </c>
+      <c r="E233">
+        <v>0.96772053500951216</v>
+      </c>
+      <c r="F233" t="s">
+        <v>236</v>
+      </c>
+    </row>
+    <row r="234" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A234" s="1">
+        <v>22</v>
+      </c>
+      <c r="B234">
+        <v>0.98320733551187622</v>
+      </c>
+      <c r="C234">
+        <v>1</v>
+      </c>
+      <c r="D234">
+        <v>0.93626060696815416</v>
+      </c>
+      <c r="E234">
+        <v>0.96676249565208539</v>
+      </c>
+      <c r="F234" t="s">
+        <v>237</v>
+      </c>
+    </row>
+    <row r="235" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A235" s="1">
+        <v>23</v>
+      </c>
+      <c r="B235">
+        <v>0.98518265619665413</v>
+      </c>
+      <c r="C235">
+        <v>1</v>
+      </c>
+      <c r="D235">
+        <v>0.94422636498926182</v>
+      </c>
+      <c r="E235">
+        <v>0.97123712962058817</v>
+      </c>
+      <c r="F235" t="s">
+        <v>238</v>
+      </c>
+    </row>
+    <row r="236" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A236" s="1">
+        <v>24</v>
+      </c>
+      <c r="B236">
+        <v>0.92785933765790374</v>
+      </c>
+      <c r="C236">
+        <v>0.99069767441860468</v>
+      </c>
+      <c r="D236">
+        <v>0.7291407587849883</v>
+      </c>
+      <c r="E236">
+        <v>0.83913603430288775</v>
+      </c>
+      <c r="F236" t="s">
+        <v>239</v>
+      </c>
+    </row>
+    <row r="237" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A237" s="1">
+        <v>25</v>
+      </c>
+      <c r="B237">
+        <v>0.98912842023118563</v>
+      </c>
+      <c r="C237">
+        <v>1</v>
+      </c>
+      <c r="D237">
+        <v>0.95738554296693823</v>
+      </c>
+      <c r="E237">
+        <v>0.97815396182500791</v>
+      </c>
+      <c r="F237" t="s">
+        <v>240</v>
+      </c>
+    </row>
+    <row r="238" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A238" s="1">
+        <v>26</v>
+      </c>
+      <c r="B238">
+        <v>0.98715309954640773</v>
+      </c>
+      <c r="C238">
+        <v>1</v>
+      </c>
+      <c r="D238">
+        <v>0.95057098074339452</v>
+      </c>
+      <c r="E238">
+        <v>0.97445777084632201</v>
+      </c>
+      <c r="F238" t="s">
+        <v>241</v>
+      </c>
+    </row>
+    <row r="239" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A239" s="1">
+        <v>27</v>
+      </c>
+      <c r="B239">
+        <v>0.98913329756620993</v>
+      </c>
+      <c r="C239">
+        <v>1</v>
+      </c>
+      <c r="D239">
+        <v>0.95823092348827643</v>
+      </c>
+      <c r="E239">
+        <v>0.97862491494842963</v>
+      </c>
+      <c r="F239" t="s">
+        <v>242</v>
+      </c>
+    </row>
+    <row r="240" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A240" s="1">
+        <v>0</v>
+      </c>
+      <c r="B240">
+        <v>0.98814319855630883</v>
+      </c>
+      <c r="C240">
+        <v>1</v>
+      </c>
+      <c r="D240">
+        <v>0.95477762139338496</v>
+      </c>
+      <c r="E240">
+        <v>0.97681324263358449</v>
+      </c>
+      <c r="F240" t="s">
+        <v>243</v>
+      </c>
+    </row>
+    <row r="241" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A241" s="1">
+        <v>1</v>
+      </c>
+      <c r="B241">
+        <v>0.98715797688143214</v>
+      </c>
+      <c r="C241">
+        <v>1</v>
+      </c>
+      <c r="D241">
+        <v>0.95017336529092211</v>
+      </c>
+      <c r="E241">
+        <v>0.97433750196505287</v>
+      </c>
+      <c r="F241" t="s">
+        <v>244</v>
+      </c>
+    </row>
+    <row r="242" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A242" s="1">
+        <v>2</v>
+      </c>
+      <c r="B242">
+        <v>0.98221723650197534</v>
+      </c>
+      <c r="C242">
+        <v>1</v>
+      </c>
+      <c r="D242">
+        <v>0.92897911852251658</v>
+      </c>
+      <c r="E242">
+        <v>0.96200863462071595</v>
+      </c>
+      <c r="F242" t="s">
+        <v>245</v>
+      </c>
+    </row>
+    <row r="243" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A243" s="1">
+        <v>3</v>
+      </c>
+      <c r="B243">
+        <v>0.93280983270740858</v>
+      </c>
+      <c r="C243">
+        <v>1</v>
+      </c>
+      <c r="D243">
+        <v>0.74254726096071455</v>
+      </c>
+      <c r="E243">
+        <v>0.8497588243508547</v>
+      </c>
+      <c r="F243" t="s">
+        <v>246</v>
+      </c>
+    </row>
+    <row r="244" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A244" s="1">
+        <v>4</v>
+      </c>
+      <c r="B244">
+        <v>0.99111349558601169</v>
+      </c>
+      <c r="C244">
+        <v>1</v>
+      </c>
+      <c r="D244">
+        <v>0.96490028490028501</v>
+      </c>
+      <c r="E244">
+        <v>0.98203764680351813</v>
+      </c>
+      <c r="F244" t="s">
+        <v>247</v>
+      </c>
+    </row>
+    <row r="245" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A245" s="1">
+        <v>5</v>
+      </c>
+      <c r="B245">
+        <v>0.98715797688143214</v>
+      </c>
+      <c r="C245">
+        <v>1</v>
+      </c>
+      <c r="D245">
+        <v>0.95160639360639343</v>
+      </c>
+      <c r="E245">
+        <v>0.97486840594155488</v>
+      </c>
+      <c r="F245" t="s">
+        <v>248</v>
+      </c>
+    </row>
+    <row r="246" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A246" s="1">
+        <v>6</v>
+      </c>
+      <c r="B246">
+        <v>0.98814319855630883</v>
+      </c>
+      <c r="C246">
+        <v>1</v>
+      </c>
+      <c r="D246">
+        <v>0.95606543716429382</v>
+      </c>
+      <c r="E246">
+        <v>0.97741232654674648</v>
+      </c>
+      <c r="F246" t="s">
+        <v>249</v>
+      </c>
+    </row>
+    <row r="247" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A247" s="1">
+        <v>7</v>
+      </c>
+      <c r="B247">
+        <v>0.98517290152660597</v>
+      </c>
+      <c r="C247">
+        <v>1</v>
+      </c>
+      <c r="D247">
+        <v>0.94429036571893721</v>
+      </c>
+      <c r="E247">
+        <v>0.97092508192060811</v>
+      </c>
+      <c r="F247" t="s">
+        <v>250</v>
+      </c>
+    </row>
+    <row r="248" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A248" s="1">
+        <v>0</v>
+      </c>
+      <c r="B248">
+        <v>0.98715309954640773</v>
+      </c>
+      <c r="C248">
+        <v>1</v>
+      </c>
+      <c r="D248">
+        <v>0.95215212188280096</v>
+      </c>
+      <c r="E248">
+        <v>0.97528354490176417</v>
+      </c>
+      <c r="F248" t="s">
+        <v>251</v>
       </c>
     </row>
   </sheetData>
